--- a/data/motion_pattern_touching.xlsx
+++ b/data/motion_pattern_touching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xac/Development/FaceOff/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30E87AB-1901-384F-8DA3-DFAD58519948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0480EB8-3405-AB40-A955-9A1757785604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="3"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="x" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="34">
   <si>
     <t>f0</t>
   </si>
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +278,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,8 +631,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -980,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI217"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1222,7 +1234,7 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T32" si="1">COUNTIFS(A$2:A$217, "&gt;="&amp;$S3, A$2:A$217,  "&lt;"&amp;$S4)</f>
+        <f t="shared" ref="T3:T26" si="1">COUNTIFS(A$2:A$217, "&gt;="&amp;$S3, A$2:A$217,  "&lt;"&amp;$S4)</f>
         <v>0</v>
       </c>
       <c r="U3">
@@ -3026,63 +3038,63 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <f t="shared" ref="U18:U32" si="2">COUNTIFS(B$2:B$217, "&gt;="&amp;$S18, B$2:B$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="U18:U26" si="2">COUNTIFS(B$2:B$217, "&gt;="&amp;$S18, B$2:B$217,  "&lt;"&amp;$S19)</f>
         <v>1</v>
       </c>
       <c r="V18">
-        <f t="shared" ref="V18:V32" si="3">COUNTIFS(C$2:C$217, "&gt;="&amp;$S18, C$2:C$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="V18:V26" si="3">COUNTIFS(C$2:C$217, "&gt;="&amp;$S18, C$2:C$217,  "&lt;"&amp;$S19)</f>
         <v>5</v>
       </c>
       <c r="W18">
-        <f t="shared" ref="W18:W32" si="4">COUNTIFS(D$2:D$217, "&gt;="&amp;$S18, D$2:D$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="W18:W26" si="4">COUNTIFS(D$2:D$217, "&gt;="&amp;$S18, D$2:D$217,  "&lt;"&amp;$S19)</f>
         <v>9</v>
       </c>
       <c r="X18">
-        <f t="shared" ref="X18:X32" si="5">COUNTIFS(E$2:E$217, "&gt;="&amp;$S18, E$2:E$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="X18:X26" si="5">COUNTIFS(E$2:E$217, "&gt;="&amp;$S18, E$2:E$217,  "&lt;"&amp;$S19)</f>
         <v>7</v>
       </c>
       <c r="Y18">
-        <f t="shared" ref="Y18:Y32" si="6">COUNTIFS(F$2:F$217, "&gt;="&amp;$S18, F$2:F$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="Y18:Y26" si="6">COUNTIFS(F$2:F$217, "&gt;="&amp;$S18, F$2:F$217,  "&lt;"&amp;$S19)</f>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" ref="Z18:Z32" si="7">COUNTIFS(G$2:G$217, "&gt;="&amp;$S18, G$2:G$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="Z18:Z26" si="7">COUNTIFS(G$2:G$217, "&gt;="&amp;$S18, G$2:G$217,  "&lt;"&amp;$S19)</f>
         <v>0</v>
       </c>
       <c r="AA18">
-        <f t="shared" ref="AA18:AA32" si="8">COUNTIFS(H$2:H$217, "&gt;="&amp;$S18, H$2:H$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AA18:AA26" si="8">COUNTIFS(H$2:H$217, "&gt;="&amp;$S18, H$2:H$217,  "&lt;"&amp;$S19)</f>
         <v>1</v>
       </c>
       <c r="AB18">
-        <f t="shared" ref="AB18:AB32" si="9">COUNTIFS(I$2:I$217, "&gt;="&amp;$S18, I$2:I$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AB18:AB26" si="9">COUNTIFS(I$2:I$217, "&gt;="&amp;$S18, I$2:I$217,  "&lt;"&amp;$S19)</f>
         <v>1</v>
       </c>
       <c r="AC18">
-        <f t="shared" ref="AC18:AC32" si="10">COUNTIFS(J$2:J$217, "&gt;="&amp;$S18, J$2:J$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AC18:AC26" si="10">COUNTIFS(J$2:J$217, "&gt;="&amp;$S18, J$2:J$217,  "&lt;"&amp;$S19)</f>
         <v>1</v>
       </c>
       <c r="AD18">
-        <f t="shared" ref="AD18:AD32" si="11">COUNTIFS(K$2:K$217, "&gt;="&amp;$S18, K$2:K$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AD18:AD26" si="11">COUNTIFS(K$2:K$217, "&gt;="&amp;$S18, K$2:K$217,  "&lt;"&amp;$S19)</f>
         <v>1</v>
       </c>
       <c r="AE18">
-        <f t="shared" ref="AE18:AE32" si="12">COUNTIFS(L$2:L$217, "&gt;="&amp;$S18, L$2:L$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AE18:AE26" si="12">COUNTIFS(L$2:L$217, "&gt;="&amp;$S18, L$2:L$217,  "&lt;"&amp;$S19)</f>
         <v>1</v>
       </c>
       <c r="AF18">
-        <f t="shared" ref="AF18:AF32" si="13">COUNTIFS(M$2:M$217, "&gt;="&amp;$S18, M$2:M$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AF18:AF26" si="13">COUNTIFS(M$2:M$217, "&gt;="&amp;$S18, M$2:M$217,  "&lt;"&amp;$S19)</f>
         <v>1</v>
       </c>
       <c r="AG18">
-        <f t="shared" ref="AG18:AG32" si="14">COUNTIFS(N$2:N$217, "&gt;="&amp;$S18, N$2:N$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AG18:AG26" si="14">COUNTIFS(N$2:N$217, "&gt;="&amp;$S18, N$2:N$217,  "&lt;"&amp;$S19)</f>
         <v>2</v>
       </c>
       <c r="AH18">
-        <f t="shared" ref="AH18:AH32" si="15">COUNTIFS(O$2:O$217, "&gt;="&amp;$S18, O$2:O$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AH18:AH26" si="15">COUNTIFS(O$2:O$217, "&gt;="&amp;$S18, O$2:O$217,  "&lt;"&amp;$S19)</f>
         <v>2</v>
       </c>
       <c r="AI18">
-        <f t="shared" ref="AI18:AI32" si="16">COUNTIFS(P$2:P$217, "&gt;="&amp;$S18, P$2:P$217,  "&lt;"&amp;$S19)</f>
+        <f t="shared" ref="AI18:AI26" si="16">COUNTIFS(P$2:P$217, "&gt;="&amp;$S18, P$2:P$217,  "&lt;"&amp;$S19)</f>
         <v>3</v>
       </c>
     </row>
@@ -14230,11 +14242,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AI217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26782,11 +26795,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AI217"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -39334,5344 +39348,5347 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AJ52" sqref="AJ52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="17" width="5" customWidth="1"/>
+    <col min="1" max="17" width="5" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>-1.2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;=-"&amp;$A2, x!A$2:'x'!A$217,  "&lt;-"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A2, x!B$2:'x'!B$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A2, x!C$2:'x'!C$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A2, x!D$2:'x'!D$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A2, x!E$2:'x'!E$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A2, x!F$2:'x'!F$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A2, x!G$2:'x'!G$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A2, x!H$2:'x'!H$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A2, x!I$2:'x'!I$217,  "&lt;"&amp;$A3)</f>
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A2, x!J$2:'x'!J$217,  "&lt;"&amp;$A3)</f>
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A2, x!K$2:'x'!K$217,  "&lt;"&amp;$A3)</f>
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A2, x!L$2:'x'!L$217,  "&lt;"&amp;$A3)</f>
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A2, x!M$2:'x'!M$217,  "&lt;"&amp;$A3)</f>
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A2, x!N$2:'x'!N$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A2, x!O$2:'x'!O$217,  "&lt;"&amp;$A3)</f>
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A2, x!P$2:'x'!P$217,  "&lt;"&amp;$A3)</f>
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A3, x!A$2:'x'!A$217,  "&lt;"&amp;$A4)</f>
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A3, x!B$2:'x'!B$217,  "&lt;"&amp;$A4)</f>
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A3, x!C$2:'x'!C$217,  "&lt;"&amp;$A4)</f>
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A3, x!D$2:'x'!D$217,  "&lt;"&amp;$A4)</f>
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A3, x!E$2:'x'!E$217,  "&lt;"&amp;$A4)</f>
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A3, x!F$2:'x'!F$217,  "&lt;"&amp;$A4)</f>
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A3, x!G$2:'x'!G$217,  "&lt;"&amp;$A4)</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A3, x!H$2:'x'!H$217,  "&lt;"&amp;$A4)</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A3, x!I$2:'x'!I$217,  "&lt;"&amp;$A4)</f>
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A3, x!J$2:'x'!J$217,  "&lt;"&amp;$A4)</f>
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A3, x!K$2:'x'!K$217,  "&lt;"&amp;$A4)</f>
         <v>13</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A3, x!L$2:'x'!L$217,  "&lt;"&amp;$A4)</f>
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A3, x!M$2:'x'!M$217,  "&lt;"&amp;$A4)</f>
         <v>5</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A3, x!N$2:'x'!N$217,  "&lt;"&amp;$A4)</f>
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A3, x!O$2:'x'!O$217,  "&lt;"&amp;$A4)</f>
         <v>10</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A3, x!P$2:'x'!P$217,  "&lt;"&amp;$A4)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>-1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A4, x!A$2:'x'!A$217,  "&lt;"&amp;$A5)</f>
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A4, x!B$2:'x'!B$217,  "&lt;"&amp;$A5)</f>
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A4, x!C$2:'x'!C$217,  "&lt;"&amp;$A5)</f>
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A4, x!D$2:'x'!D$217,  "&lt;"&amp;$A5)</f>
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A4, x!E$2:'x'!E$217,  "&lt;"&amp;$A5)</f>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A4, x!F$2:'x'!F$217,  "&lt;"&amp;$A5)</f>
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A4, x!G$2:'x'!G$217,  "&lt;"&amp;$A5)</f>
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A4, x!H$2:'x'!H$217,  "&lt;"&amp;$A5)</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A4, x!I$2:'x'!I$217,  "&lt;"&amp;$A5)</f>
         <v>9</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A4, x!J$2:'x'!J$217,  "&lt;"&amp;$A5)</f>
         <v>39</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A4, x!K$2:'x'!K$217,  "&lt;"&amp;$A5)</f>
         <v>53</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A4, x!L$2:'x'!L$217,  "&lt;"&amp;$A5)</f>
         <v>39</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A4, x!M$2:'x'!M$217,  "&lt;"&amp;$A5)</f>
         <v>40</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A4, x!N$2:'x'!N$217,  "&lt;"&amp;$A5)</f>
         <v>46</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A4, x!O$2:'x'!O$217,  "&lt;"&amp;$A5)</f>
         <v>31</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A4, x!P$2:'x'!P$217,  "&lt;"&amp;$A5)</f>
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>-0.9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A5, x!A$2:'x'!A$217,  "&lt;"&amp;$A6)</f>
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A5, x!B$2:'x'!B$217,  "&lt;"&amp;$A6)</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A5, x!C$2:'x'!C$217,  "&lt;"&amp;$A6)</f>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A5, x!D$2:'x'!D$217,  "&lt;"&amp;$A6)</f>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A5, x!E$2:'x'!E$217,  "&lt;"&amp;$A6)</f>
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A5, x!F$2:'x'!F$217,  "&lt;"&amp;$A6)</f>
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A5, x!G$2:'x'!G$217,  "&lt;"&amp;$A6)</f>
         <v>6</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A5, x!H$2:'x'!H$217,  "&lt;"&amp;$A6)</f>
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A5, x!I$2:'x'!I$217,  "&lt;"&amp;$A6)</f>
         <v>32</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A5, x!J$2:'x'!J$217,  "&lt;"&amp;$A6)</f>
         <v>75</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A5, x!K$2:'x'!K$217,  "&lt;"&amp;$A6)</f>
         <v>78</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A5, x!L$2:'x'!L$217,  "&lt;"&amp;$A6)</f>
         <v>72</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A5, x!M$2:'x'!M$217,  "&lt;"&amp;$A6)</f>
         <v>64</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A5, x!N$2:'x'!N$217,  "&lt;"&amp;$A6)</f>
         <v>55</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A5, x!O$2:'x'!O$217,  "&lt;"&amp;$A6)</f>
         <v>51</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A5, x!P$2:'x'!P$217,  "&lt;"&amp;$A6)</f>
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>-0.80000000000000104</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A6, x!A$2:'x'!A$217,  "&lt;"&amp;$A7)</f>
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A6, x!B$2:'x'!B$217,  "&lt;"&amp;$A7)</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A6, x!C$2:'x'!C$217,  "&lt;"&amp;$A7)</f>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A6, x!D$2:'x'!D$217,  "&lt;"&amp;$A7)</f>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A6, x!E$2:'x'!E$217,  "&lt;"&amp;$A7)</f>
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A6, x!F$2:'x'!F$217,  "&lt;"&amp;$A7)</f>
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A6, x!G$2:'x'!G$217,  "&lt;"&amp;$A7)</f>
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A6, x!H$2:'x'!H$217,  "&lt;"&amp;$A7)</f>
         <v>28</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A6, x!I$2:'x'!I$217,  "&lt;"&amp;$A7)</f>
         <v>51</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A6, x!J$2:'x'!J$217,  "&lt;"&amp;$A7)</f>
         <v>40</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A6, x!K$2:'x'!K$217,  "&lt;"&amp;$A7)</f>
         <v>38</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A6, x!L$2:'x'!L$217,  "&lt;"&amp;$A7)</f>
         <v>41</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A6, x!M$2:'x'!M$217,  "&lt;"&amp;$A7)</f>
         <v>36</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A6, x!N$2:'x'!N$217,  "&lt;"&amp;$A7)</f>
         <v>32</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A6, x!O$2:'x'!O$217,  "&lt;"&amp;$A7)</f>
         <v>24</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A6, x!P$2:'x'!P$217,  "&lt;"&amp;$A7)</f>
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>-0.70000000000000095</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A7, x!A$2:'x'!A$217,  "&lt;"&amp;$A8)</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A7, x!B$2:'x'!B$217,  "&lt;"&amp;$A8)</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A7, x!C$2:'x'!C$217,  "&lt;"&amp;$A8)</f>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A7, x!D$2:'x'!D$217,  "&lt;"&amp;$A8)</f>
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A7, x!E$2:'x'!E$217,  "&lt;"&amp;$A8)</f>
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A7, x!F$2:'x'!F$217,  "&lt;"&amp;$A8)</f>
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A7, x!G$2:'x'!G$217,  "&lt;"&amp;$A8)</f>
         <v>38</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A7, x!H$2:'x'!H$217,  "&lt;"&amp;$A8)</f>
         <v>49</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A7, x!I$2:'x'!I$217,  "&lt;"&amp;$A8)</f>
         <v>48</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A7, x!J$2:'x'!J$217,  "&lt;"&amp;$A8)</f>
         <v>28</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A7, x!K$2:'x'!K$217,  "&lt;"&amp;$A8)</f>
         <v>15</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A7, x!L$2:'x'!L$217,  "&lt;"&amp;$A8)</f>
         <v>21</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A7, x!M$2:'x'!M$217,  "&lt;"&amp;$A8)</f>
         <v>25</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A7, x!N$2:'x'!N$217,  "&lt;"&amp;$A8)</f>
         <v>20</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A7, x!O$2:'x'!O$217,  "&lt;"&amp;$A8)</f>
         <v>25</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A7, x!P$2:'x'!P$217,  "&lt;"&amp;$A8)</f>
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>-0.60000000000000098</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A8, x!A$2:'x'!A$217,  "&lt;"&amp;$A9)</f>
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A8, x!B$2:'x'!B$217,  "&lt;"&amp;$A9)</f>
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A8, x!C$2:'x'!C$217,  "&lt;"&amp;$A9)</f>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A8, x!D$2:'x'!D$217,  "&lt;"&amp;$A9)</f>
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A8, x!E$2:'x'!E$217,  "&lt;"&amp;$A9)</f>
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A8, x!F$2:'x'!F$217,  "&lt;"&amp;$A9)</f>
         <v>30</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A8, x!G$2:'x'!G$217,  "&lt;"&amp;$A9)</f>
         <v>37</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A8, x!H$2:'x'!H$217,  "&lt;"&amp;$A9)</f>
         <v>44</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A8, x!I$2:'x'!I$217,  "&lt;"&amp;$A9)</f>
         <v>41</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A8, x!J$2:'x'!J$217,  "&lt;"&amp;$A9)</f>
         <v>16</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A8, x!K$2:'x'!K$217,  "&lt;"&amp;$A9)</f>
         <v>10</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A8, x!L$2:'x'!L$217,  "&lt;"&amp;$A9)</f>
         <v>12</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A8, x!M$2:'x'!M$217,  "&lt;"&amp;$A9)</f>
         <v>17</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A8, x!N$2:'x'!N$217,  "&lt;"&amp;$A9)</f>
         <v>18</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A8, x!O$2:'x'!O$217,  "&lt;"&amp;$A9)</f>
         <v>23</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A8, x!P$2:'x'!P$217,  "&lt;"&amp;$A9)</f>
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>-0.500000000000001</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A9, x!A$2:'x'!A$217,  "&lt;"&amp;$A10)</f>
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A9, x!B$2:'x'!B$217,  "&lt;"&amp;$A10)</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A9, x!C$2:'x'!C$217,  "&lt;"&amp;$A10)</f>
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A9, x!D$2:'x'!D$217,  "&lt;"&amp;$A10)</f>
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A9, x!E$2:'x'!E$217,  "&lt;"&amp;$A10)</f>
         <v>19</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A9, x!F$2:'x'!F$217,  "&lt;"&amp;$A10)</f>
         <v>32</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A9, x!G$2:'x'!G$217,  "&lt;"&amp;$A10)</f>
         <v>34</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A9, x!H$2:'x'!H$217,  "&lt;"&amp;$A10)</f>
         <v>45</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A9, x!I$2:'x'!I$217,  "&lt;"&amp;$A10)</f>
         <v>19</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A9, x!J$2:'x'!J$217,  "&lt;"&amp;$A10)</f>
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A9, x!K$2:'x'!K$217,  "&lt;"&amp;$A10)</f>
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A9, x!L$2:'x'!L$217,  "&lt;"&amp;$A10)</f>
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A9, x!M$2:'x'!M$217,  "&lt;"&amp;$A10)</f>
         <v>9</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A9, x!N$2:'x'!N$217,  "&lt;"&amp;$A10)</f>
         <v>13</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A9, x!O$2:'x'!O$217,  "&lt;"&amp;$A10)</f>
         <v>12</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A9, x!P$2:'x'!P$217,  "&lt;"&amp;$A10)</f>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>-0.40000000000000102</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A10, x!A$2:'x'!A$217,  "&lt;"&amp;$A11)</f>
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A10, x!B$2:'x'!B$217,  "&lt;"&amp;$A11)</f>
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A10, x!C$2:'x'!C$217,  "&lt;"&amp;$A11)</f>
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A10, x!D$2:'x'!D$217,  "&lt;"&amp;$A11)</f>
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A10, x!E$2:'x'!E$217,  "&lt;"&amp;$A11)</f>
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A10, x!F$2:'x'!F$217,  "&lt;"&amp;$A11)</f>
         <v>32</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A10, x!G$2:'x'!G$217,  "&lt;"&amp;$A11)</f>
         <v>27</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A10, x!H$2:'x'!H$217,  "&lt;"&amp;$A11)</f>
         <v>22</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A10, x!I$2:'x'!I$217,  "&lt;"&amp;$A11)</f>
         <v>7</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A10, x!J$2:'x'!J$217,  "&lt;"&amp;$A11)</f>
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A10, x!K$2:'x'!K$217,  "&lt;"&amp;$A11)</f>
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A10, x!L$2:'x'!L$217,  "&lt;"&amp;$A11)</f>
         <v>6</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A10, x!M$2:'x'!M$217,  "&lt;"&amp;$A11)</f>
         <v>5</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A10, x!N$2:'x'!N$217,  "&lt;"&amp;$A11)</f>
         <v>7</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A10, x!O$2:'x'!O$217,  "&lt;"&amp;$A11)</f>
         <v>7</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A10, x!P$2:'x'!P$217,  "&lt;"&amp;$A11)</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>-0.30000000000000099</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A11, x!A$2:'x'!A$217,  "&lt;"&amp;$A12)</f>
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A11, x!B$2:'x'!B$217,  "&lt;"&amp;$A12)</f>
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A11, x!C$2:'x'!C$217,  "&lt;"&amp;$A12)</f>
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A11, x!D$2:'x'!D$217,  "&lt;"&amp;$A12)</f>
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A11, x!E$2:'x'!E$217,  "&lt;"&amp;$A12)</f>
         <v>17</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A11, x!F$2:'x'!F$217,  "&lt;"&amp;$A12)</f>
         <v>14</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A11, x!G$2:'x'!G$217,  "&lt;"&amp;$A12)</f>
         <v>26</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A11, x!H$2:'x'!H$217,  "&lt;"&amp;$A12)</f>
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A11, x!I$2:'x'!I$217,  "&lt;"&amp;$A12)</f>
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A11, x!J$2:'x'!J$217,  "&lt;"&amp;$A12)</f>
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A11, x!K$2:'x'!K$217,  "&lt;"&amp;$A12)</f>
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A11, x!L$2:'x'!L$217,  "&lt;"&amp;$A12)</f>
         <v>3</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A11, x!M$2:'x'!M$217,  "&lt;"&amp;$A12)</f>
         <v>4</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A11, x!N$2:'x'!N$217,  "&lt;"&amp;$A12)</f>
         <v>5</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A11, x!O$2:'x'!O$217,  "&lt;"&amp;$A12)</f>
         <v>6</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A11, x!P$2:'x'!P$217,  "&lt;"&amp;$A12)</f>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>-0.20000000000000101</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A12, x!A$2:'x'!A$217,  "&lt;"&amp;$A13)</f>
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A12, x!B$2:'x'!B$217,  "&lt;"&amp;$A13)</f>
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A12, x!C$2:'x'!C$217,  "&lt;"&amp;$A13)</f>
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A12, x!D$2:'x'!D$217,  "&lt;"&amp;$A13)</f>
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A12, x!E$2:'x'!E$217,  "&lt;"&amp;$A13)</f>
         <v>19</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A12, x!F$2:'x'!F$217,  "&lt;"&amp;$A13)</f>
         <v>22</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A12, x!G$2:'x'!G$217,  "&lt;"&amp;$A13)</f>
         <v>16</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A12, x!H$2:'x'!H$217,  "&lt;"&amp;$A13)</f>
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A12, x!I$2:'x'!I$217,  "&lt;"&amp;$A13)</f>
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A12, x!J$2:'x'!J$217,  "&lt;"&amp;$A13)</f>
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A12, x!K$2:'x'!K$217,  "&lt;"&amp;$A13)</f>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A12, x!L$2:'x'!L$217,  "&lt;"&amp;$A13)</f>
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A12, x!M$2:'x'!M$217,  "&lt;"&amp;$A13)</f>
         <v>2</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A12, x!N$2:'x'!N$217,  "&lt;"&amp;$A13)</f>
         <v>2</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A12, x!O$2:'x'!O$217,  "&lt;"&amp;$A13)</f>
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A12, x!P$2:'x'!P$217,  "&lt;"&amp;$A13)</f>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>-9.9999999999999895E-2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A13, x!A$2:'x'!A$217,  "&lt;"&amp;$A14)</f>
         <v>51</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A13, x!B$2:'x'!B$217,  "&lt;"&amp;$A14)</f>
         <v>49</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A13, x!C$2:'x'!C$217,  "&lt;"&amp;$A14)</f>
         <v>39</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A13, x!D$2:'x'!D$217,  "&lt;"&amp;$A14)</f>
         <v>37</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A13, x!E$2:'x'!E$217,  "&lt;"&amp;$A14)</f>
         <v>37</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A13, x!F$2:'x'!F$217,  "&lt;"&amp;$A14)</f>
         <v>19</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A13, x!G$2:'x'!G$217,  "&lt;"&amp;$A14)</f>
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A13, x!H$2:'x'!H$217,  "&lt;"&amp;$A14)</f>
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A13, x!I$2:'x'!I$217,  "&lt;"&amp;$A14)</f>
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A13, x!J$2:'x'!J$217,  "&lt;"&amp;$A14)</f>
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A13, x!K$2:'x'!K$217,  "&lt;"&amp;$A14)</f>
         <v>1</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A13, x!L$2:'x'!L$217,  "&lt;"&amp;$A14)</f>
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A13, x!M$2:'x'!M$217,  "&lt;"&amp;$A14)</f>
         <v>3</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A13, x!N$2:'x'!N$217,  "&lt;"&amp;$A14)</f>
         <v>2</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A13, x!O$2:'x'!O$217,  "&lt;"&amp;$A14)</f>
         <v>6</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A13, x!P$2:'x'!P$217,  "&lt;"&amp;$A14)</f>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A14, x!A$2:'x'!A$217,  "&lt;"&amp;$A15)</f>
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A14, x!B$2:'x'!B$217,  "&lt;"&amp;$A15)</f>
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A14, x!C$2:'x'!C$217,  "&lt;"&amp;$A15)</f>
         <v>31</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A14, x!D$2:'x'!D$217,  "&lt;"&amp;$A15)</f>
         <v>43</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A14, x!E$2:'x'!E$217,  "&lt;"&amp;$A15)</f>
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A14, x!F$2:'x'!F$217,  "&lt;"&amp;$A15)</f>
         <v>13</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A14, x!G$2:'x'!G$217,  "&lt;"&amp;$A15)</f>
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A14, x!H$2:'x'!H$217,  "&lt;"&amp;$A15)</f>
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A14, x!I$2:'x'!I$217,  "&lt;"&amp;$A15)</f>
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A14, x!J$2:'x'!J$217,  "&lt;"&amp;$A15)</f>
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A14, x!K$2:'x'!K$217,  "&lt;"&amp;$A15)</f>
         <v>1</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A14, x!L$2:'x'!L$217,  "&lt;"&amp;$A15)</f>
         <v>1</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A14, x!M$2:'x'!M$217,  "&lt;"&amp;$A15)</f>
         <v>3</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A14, x!N$2:'x'!N$217,  "&lt;"&amp;$A15)</f>
         <v>3</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A14, x!O$2:'x'!O$217,  "&lt;"&amp;$A15)</f>
         <v>2</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A14, x!P$2:'x'!P$217,  "&lt;"&amp;$A15)</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>0.1</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A15, x!A$2:'x'!A$217,  "&lt;"&amp;$A16)</f>
         <v>29</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A15, x!B$2:'x'!B$217,  "&lt;"&amp;$A16)</f>
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A15, x!C$2:'x'!C$217,  "&lt;"&amp;$A16)</f>
         <v>22</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A15, x!D$2:'x'!D$217,  "&lt;"&amp;$A16)</f>
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A15, x!E$2:'x'!E$217,  "&lt;"&amp;$A16)</f>
         <v>9</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A15, x!F$2:'x'!F$217,  "&lt;"&amp;$A16)</f>
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A15, x!G$2:'x'!G$217,  "&lt;"&amp;$A16)</f>
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A15, x!H$2:'x'!H$217,  "&lt;"&amp;$A16)</f>
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A15, x!I$2:'x'!I$217,  "&lt;"&amp;$A16)</f>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A15, x!J$2:'x'!J$217,  "&lt;"&amp;$A16)</f>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A15, x!K$2:'x'!K$217,  "&lt;"&amp;$A16)</f>
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A15, x!L$2:'x'!L$217,  "&lt;"&amp;$A16)</f>
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A15, x!M$2:'x'!M$217,  "&lt;"&amp;$A16)</f>
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A15, x!N$2:'x'!N$217,  "&lt;"&amp;$A16)</f>
         <v>2</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A15, x!O$2:'x'!O$217,  "&lt;"&amp;$A16)</f>
         <v>3</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A15, x!P$2:'x'!P$217,  "&lt;"&amp;$A16)</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>0.2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A16, x!A$2:'x'!A$217,  "&lt;"&amp;$A17)</f>
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A16, x!B$2:'x'!B$217,  "&lt;"&amp;$A17)</f>
         <v>33</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A16, x!C$2:'x'!C$217,  "&lt;"&amp;$A17)</f>
         <v>26</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A16, x!D$2:'x'!D$217,  "&lt;"&amp;$A17)</f>
         <v>17</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A16, x!E$2:'x'!E$217,  "&lt;"&amp;$A17)</f>
         <v>14</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A16, x!F$2:'x'!F$217,  "&lt;"&amp;$A17)</f>
         <v>7</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A16, x!G$2:'x'!G$217,  "&lt;"&amp;$A17)</f>
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A16, x!H$2:'x'!H$217,  "&lt;"&amp;$A17)</f>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A16, x!I$2:'x'!I$217,  "&lt;"&amp;$A17)</f>
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A16, x!J$2:'x'!J$217,  "&lt;"&amp;$A17)</f>
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A16, x!K$2:'x'!K$217,  "&lt;"&amp;$A17)</f>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A16, x!L$2:'x'!L$217,  "&lt;"&amp;$A17)</f>
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A16, x!M$2:'x'!M$217,  "&lt;"&amp;$A17)</f>
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A16, x!N$2:'x'!N$217,  "&lt;"&amp;$A17)</f>
         <v>3</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A16, x!O$2:'x'!O$217,  "&lt;"&amp;$A17)</f>
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A16, x!P$2:'x'!P$217,  "&lt;"&amp;$A17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>0.3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A17, x!A$2:'x'!A$217,  "&lt;"&amp;$A18)</f>
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A17, x!B$2:'x'!B$217,  "&lt;"&amp;$A18)</f>
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A17, x!C$2:'x'!C$217,  "&lt;"&amp;$A18)</f>
         <v>17</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A17, x!D$2:'x'!D$217,  "&lt;"&amp;$A18)</f>
         <v>14</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A17, x!E$2:'x'!E$217,  "&lt;"&amp;$A18)</f>
         <v>9</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A17, x!F$2:'x'!F$217,  "&lt;"&amp;$A18)</f>
         <v>4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A17, x!G$2:'x'!G$217,  "&lt;"&amp;$A18)</f>
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A17, x!H$2:'x'!H$217,  "&lt;"&amp;$A18)</f>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A17, x!I$2:'x'!I$217,  "&lt;"&amp;$A18)</f>
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A17, x!J$2:'x'!J$217,  "&lt;"&amp;$A18)</f>
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A17, x!K$2:'x'!K$217,  "&lt;"&amp;$A18)</f>
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A17, x!L$2:'x'!L$217,  "&lt;"&amp;$A18)</f>
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A17, x!M$2:'x'!M$217,  "&lt;"&amp;$A18)</f>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A17, x!N$2:'x'!N$217,  "&lt;"&amp;$A18)</f>
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A17, x!O$2:'x'!O$217,  "&lt;"&amp;$A18)</f>
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A17, x!P$2:'x'!P$217,  "&lt;"&amp;$A18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>0.4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A18, x!A$2:'x'!A$217,  "&lt;"&amp;$A19)</f>
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A18, x!B$2:'x'!B$217,  "&lt;"&amp;$A19)</f>
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A18, x!C$2:'x'!C$217,  "&lt;"&amp;$A19)</f>
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A18, x!D$2:'x'!D$217,  "&lt;"&amp;$A19)</f>
         <v>9</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A18, x!E$2:'x'!E$217,  "&lt;"&amp;$A19)</f>
         <v>7</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A18, x!F$2:'x'!F$217,  "&lt;"&amp;$A19)</f>
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A18, x!G$2:'x'!G$217,  "&lt;"&amp;$A19)</f>
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A18, x!H$2:'x'!H$217,  "&lt;"&amp;$A19)</f>
         <v>1</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A18, x!I$2:'x'!I$217,  "&lt;"&amp;$A19)</f>
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A18, x!J$2:'x'!J$217,  "&lt;"&amp;$A19)</f>
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A18, x!K$2:'x'!K$217,  "&lt;"&amp;$A19)</f>
         <v>1</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A18, x!L$2:'x'!L$217,  "&lt;"&amp;$A19)</f>
         <v>1</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A18, x!M$2:'x'!M$217,  "&lt;"&amp;$A19)</f>
         <v>1</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A18, x!N$2:'x'!N$217,  "&lt;"&amp;$A19)</f>
         <v>2</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A18, x!O$2:'x'!O$217,  "&lt;"&amp;$A19)</f>
         <v>2</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A18, x!P$2:'x'!P$217,  "&lt;"&amp;$A19)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>0.5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A19, x!A$2:'x'!A$217,  "&lt;"&amp;$A20)</f>
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A19, x!B$2:'x'!B$217,  "&lt;"&amp;$A20)</f>
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A19, x!C$2:'x'!C$217,  "&lt;"&amp;$A20)</f>
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A19, x!D$2:'x'!D$217,  "&lt;"&amp;$A20)</f>
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A19, x!E$2:'x'!E$217,  "&lt;"&amp;$A20)</f>
         <v>3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A19, x!F$2:'x'!F$217,  "&lt;"&amp;$A20)</f>
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A19, x!G$2:'x'!G$217,  "&lt;"&amp;$A20)</f>
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A19, x!H$2:'x'!H$217,  "&lt;"&amp;$A20)</f>
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A19, x!I$2:'x'!I$217,  "&lt;"&amp;$A20)</f>
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A19, x!J$2:'x'!J$217,  "&lt;"&amp;$A20)</f>
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A19, x!K$2:'x'!K$217,  "&lt;"&amp;$A20)</f>
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A19, x!L$2:'x'!L$217,  "&lt;"&amp;$A20)</f>
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A19, x!M$2:'x'!M$217,  "&lt;"&amp;$A20)</f>
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A19, x!N$2:'x'!N$217,  "&lt;"&amp;$A20)</f>
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A19, x!O$2:'x'!O$217,  "&lt;"&amp;$A20)</f>
         <v>2</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A19, x!P$2:'x'!P$217,  "&lt;"&amp;$A20)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>0.6</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A20, x!A$2:'x'!A$217,  "&lt;"&amp;$A21)</f>
         <v>36</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A20, x!B$2:'x'!B$217,  "&lt;"&amp;$A21)</f>
         <v>30</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A20, x!C$2:'x'!C$217,  "&lt;"&amp;$A21)</f>
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A20, x!D$2:'x'!D$217,  "&lt;"&amp;$A21)</f>
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A20, x!E$2:'x'!E$217,  "&lt;"&amp;$A21)</f>
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A20, x!F$2:'x'!F$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A20, x!G$2:'x'!G$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A20, x!H$2:'x'!H$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A20, x!I$2:'x'!I$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A20, x!J$2:'x'!J$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A20, x!K$2:'x'!K$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A20, x!L$2:'x'!L$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A20, x!M$2:'x'!M$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A20, x!N$2:'x'!N$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A20, x!O$2:'x'!O$217,  "&lt;"&amp;$A21)</f>
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A20, x!P$2:'x'!P$217,  "&lt;"&amp;$A21)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>0.7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A21, x!A$2:'x'!A$217,  "&lt;"&amp;$A22)</f>
         <v>25</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A21, x!B$2:'x'!B$217,  "&lt;"&amp;$A22)</f>
         <v>32</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A21, x!C$2:'x'!C$217,  "&lt;"&amp;$A22)</f>
         <v>24</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A21, x!D$2:'x'!D$217,  "&lt;"&amp;$A22)</f>
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A21, x!E$2:'x'!E$217,  "&lt;"&amp;$A22)</f>
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A21, x!F$2:'x'!F$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A21, x!G$2:'x'!G$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A21, x!H$2:'x'!H$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A21, x!I$2:'x'!I$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A21, x!J$2:'x'!J$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A21, x!K$2:'x'!K$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A21, x!L$2:'x'!L$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A21, x!M$2:'x'!M$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A21, x!N$2:'x'!N$217,  "&lt;"&amp;$A22)</f>
         <v>1</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A21, x!O$2:'x'!O$217,  "&lt;"&amp;$A22)</f>
         <v>3</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A21, x!P$2:'x'!P$217,  "&lt;"&amp;$A22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>0.8</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A22, x!A$2:'x'!A$217,  "&lt;"&amp;$A23)</f>
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A22, x!B$2:'x'!B$217,  "&lt;"&amp;$A23)</f>
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A22, x!C$2:'x'!C$217,  "&lt;"&amp;$A23)</f>
         <v>24</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A22, x!D$2:'x'!D$217,  "&lt;"&amp;$A23)</f>
         <v>8</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A22, x!E$2:'x'!E$217,  "&lt;"&amp;$A23)</f>
         <v>2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A22, x!F$2:'x'!F$217,  "&lt;"&amp;$A23)</f>
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A22, x!G$2:'x'!G$217,  "&lt;"&amp;$A23)</f>
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A22, x!H$2:'x'!H$217,  "&lt;"&amp;$A23)</f>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A22, x!I$2:'x'!I$217,  "&lt;"&amp;$A23)</f>
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A22, x!J$2:'x'!J$217,  "&lt;"&amp;$A23)</f>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A22, x!K$2:'x'!K$217,  "&lt;"&amp;$A23)</f>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A22, x!L$2:'x'!L$217,  "&lt;"&amp;$A23)</f>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A22, x!M$2:'x'!M$217,  "&lt;"&amp;$A23)</f>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A22, x!N$2:'x'!N$217,  "&lt;"&amp;$A23)</f>
         <v>0</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A22, x!O$2:'x'!O$217,  "&lt;"&amp;$A23)</f>
         <v>3</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A22, x!P$2:'x'!P$217,  "&lt;"&amp;$A23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>0.9</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A23, x!A$2:'x'!A$217,  "&lt;"&amp;$A24)</f>
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A23, x!B$2:'x'!B$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A23, x!C$2:'x'!C$217,  "&lt;"&amp;$A24)</f>
         <v>4</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A23, x!D$2:'x'!D$217,  "&lt;"&amp;$A24)</f>
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A23, x!E$2:'x'!E$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A23, x!F$2:'x'!F$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A23, x!G$2:'x'!G$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A23, x!H$2:'x'!H$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A23, x!I$2:'x'!I$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A23, x!J$2:'x'!J$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A23, x!K$2:'x'!K$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A23, x!L$2:'x'!L$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A23, x!M$2:'x'!M$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A23, x!N$2:'x'!N$217,  "&lt;"&amp;$A24)</f>
         <v>0</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A23, x!O$2:'x'!O$217,  "&lt;"&amp;$A24)</f>
         <v>1</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A23, x!P$2:'x'!P$217,  "&lt;"&amp;$A24)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A24, x!A$2:'x'!A$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A24, x!B$2:'x'!B$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A24, x!C$2:'x'!C$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A24, x!D$2:'x'!D$217,  "&lt;"&amp;$A25)</f>
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A24, x!E$2:'x'!E$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A24, x!F$2:'x'!F$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A24, x!G$2:'x'!G$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A24, x!H$2:'x'!H$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A24, x!I$2:'x'!I$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A24, x!J$2:'x'!J$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A24, x!K$2:'x'!K$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A24, x!L$2:'x'!L$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A24, x!M$2:'x'!M$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A24, x!N$2:'x'!N$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A24, x!O$2:'x'!O$217,  "&lt;"&amp;$A25)</f>
         <v>0</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A24, x!P$2:'x'!P$217,  "&lt;"&amp;$A25)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A25, x!A$2:'x'!A$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A25, x!B$2:'x'!B$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A25, x!C$2:'x'!C$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A25, x!D$2:'x'!D$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A25, x!E$2:'x'!E$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A25, x!F$2:'x'!F$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A25, x!G$2:'x'!G$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A25, x!H$2:'x'!H$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A25, x!I$2:'x'!I$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A25, x!J$2:'x'!J$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A25, x!K$2:'x'!K$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A25, x!L$2:'x'!L$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A25, x!M$2:'x'!M$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A25, x!N$2:'x'!N$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A25, x!O$2:'x'!O$217,  "&lt;"&amp;$A26)</f>
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A25, x!P$2:'x'!P$217,  "&lt;"&amp;$A26)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>1.2</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <f>COUNTIFS(x!A$2:'x'!A$217, "&gt;="&amp;$A26, x!A$2:'x'!A$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <f>COUNTIFS(x!B$2:'x'!B$217, "&gt;="&amp;$A26, x!B$2:'x'!B$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <f>COUNTIFS(x!C$2:'x'!C$217, "&gt;="&amp;$A26, x!C$2:'x'!C$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <f>COUNTIFS(x!D$2:'x'!D$217, "&gt;="&amp;$A26, x!D$2:'x'!D$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <f>COUNTIFS(x!E$2:'x'!E$217, "&gt;="&amp;$A26, x!E$2:'x'!E$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <f>COUNTIFS(x!F$2:'x'!F$217, "&gt;="&amp;$A26, x!F$2:'x'!F$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <f>COUNTIFS(x!G$2:'x'!G$217, "&gt;="&amp;$A26, x!G$2:'x'!G$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <f>COUNTIFS(x!H$2:'x'!H$217, "&gt;="&amp;$A26, x!H$2:'x'!H$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <f>COUNTIFS(x!I$2:'x'!I$217, "&gt;="&amp;$A26, x!I$2:'x'!I$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <f>COUNTIFS(x!J$2:'x'!J$217, "&gt;="&amp;$A26, x!J$2:'x'!J$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <f>COUNTIFS(x!K$2:'x'!K$217, "&gt;="&amp;$A26, x!K$2:'x'!K$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <f>COUNTIFS(x!L$2:'x'!L$217, "&gt;="&amp;$A26, x!L$2:'x'!L$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <f>COUNTIFS(x!M$2:'x'!M$217, "&gt;="&amp;$A26, x!M$2:'x'!M$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <f>COUNTIFS(x!N$2:'x'!N$217, "&gt;="&amp;$A26, x!N$2:'x'!N$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <f>COUNTIFS(x!O$2:'x'!O$217, "&gt;="&amp;$A26, x!O$2:'x'!O$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <f>COUNTIFS(x!P$2:'x'!P$217, "&gt;="&amp;$A26, x!P$2:'x'!P$217,  "&lt;"&amp;$A27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N27" s="3">
         <v>1.2</v>
       </c>
-      <c r="B30">
+      <c r="O27" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B30" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A30, y!A$2:'y'!A$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A30, y!B$2:'y'!B$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A30, y!C$2:'y'!C$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A30, y!D$2:'y'!D$217,  "&gt;="&amp;$A31)</f>
         <v>16</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A30, y!E$2:'y'!E$217,  "&gt;="&amp;$A31)</f>
         <v>31</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A30, y!F$2:'y'!F$217,  "&gt;="&amp;$A31)</f>
         <v>18</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A30, y!G$2:'y'!G$217,  "&gt;="&amp;$A31)</f>
         <v>2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A30, y!H$2:'y'!H$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A30, y!I$2:'y'!I$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A30, y!J$2:'y'!J$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A30, y!K$2:'y'!K$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A30, y!L$2:'y'!L$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A30, y!M$2:'y'!M$217,  "&gt;="&amp;$A31)</f>
         <v>0</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A30, y!N$2:'y'!N$217,  "&gt;="&amp;$A31)</f>
         <v>1</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A30, y!O$2:'y'!O$217,  "&gt;="&amp;$A31)</f>
         <v>4</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A30, y!P$2:'y'!P$217,  "&gt;="&amp;$A31)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A31, y!A$2:'y'!A$217,  "&gt;="&amp;$A32)</f>
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A31, y!B$2:'y'!B$217,  "&gt;="&amp;$A32)</f>
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A31, y!C$2:'y'!C$217,  "&gt;="&amp;$A32)</f>
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A31, y!D$2:'y'!D$217,  "&gt;="&amp;$A32)</f>
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A31, y!E$2:'y'!E$217,  "&gt;="&amp;$A32)</f>
         <v>23</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A31, y!F$2:'y'!F$217,  "&gt;="&amp;$A32)</f>
         <v>22</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A31, y!G$2:'y'!G$217,  "&gt;="&amp;$A32)</f>
         <v>4</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A31, y!H$2:'y'!H$217,  "&gt;="&amp;$A32)</f>
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A31, y!I$2:'y'!I$217,  "&gt;="&amp;$A32)</f>
         <v>0</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A31, y!J$2:'y'!J$217,  "&gt;="&amp;$A32)</f>
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A31, y!K$2:'y'!K$217,  "&gt;="&amp;$A32)</f>
         <v>0</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A31, y!L$2:'y'!L$217,  "&gt;="&amp;$A32)</f>
         <v>0</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A31, y!M$2:'y'!M$217,  "&gt;="&amp;$A32)</f>
         <v>0</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A31, y!N$2:'y'!N$217,  "&gt;="&amp;$A32)</f>
         <v>4</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A31, y!O$2:'y'!O$217,  "&gt;="&amp;$A32)</f>
         <v>2</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A31, y!P$2:'y'!P$217,  "&gt;="&amp;$A32)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A32, y!A$2:'y'!A$217,  "&gt;="&amp;$A33)</f>
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A32, y!B$2:'y'!B$217,  "&gt;="&amp;$A33)</f>
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A32, y!C$2:'y'!C$217,  "&gt;="&amp;$A33)</f>
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A32, y!D$2:'y'!D$217,  "&gt;="&amp;$A33)</f>
         <v>16</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A32, y!E$2:'y'!E$217,  "&gt;="&amp;$A33)</f>
         <v>23</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A32, y!F$2:'y'!F$217,  "&gt;="&amp;$A33)</f>
         <v>20</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A32, y!G$2:'y'!G$217,  "&gt;="&amp;$A33)</f>
         <v>8</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A32, y!H$2:'y'!H$217,  "&gt;="&amp;$A33)</f>
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A32, y!I$2:'y'!I$217,  "&gt;="&amp;$A33)</f>
         <v>2</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A32, y!J$2:'y'!J$217,  "&gt;="&amp;$A33)</f>
         <v>0</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A32, y!K$2:'y'!K$217,  "&gt;="&amp;$A33)</f>
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A32, y!L$2:'y'!L$217,  "&gt;="&amp;$A33)</f>
         <v>1</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A32, y!M$2:'y'!M$217,  "&gt;="&amp;$A33)</f>
         <v>0</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A32, y!N$2:'y'!N$217,  "&gt;="&amp;$A33)</f>
         <v>1</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A32, y!O$2:'y'!O$217,  "&gt;="&amp;$A33)</f>
         <v>8</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A32, y!P$2:'y'!P$217,  "&gt;="&amp;$A33)</f>
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>0.9</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A33, y!A$2:'y'!A$217,  "&gt;="&amp;$A34)</f>
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A33, y!B$2:'y'!B$217,  "&gt;="&amp;$A34)</f>
         <v>2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A33, y!C$2:'y'!C$217,  "&gt;="&amp;$A34)</f>
         <v>8</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A33, y!D$2:'y'!D$217,  "&gt;="&amp;$A34)</f>
         <v>23</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A33, y!E$2:'y'!E$217,  "&gt;="&amp;$A34)</f>
         <v>25</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A33, y!F$2:'y'!F$217,  "&gt;="&amp;$A34)</f>
         <v>25</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A33, y!G$2:'y'!G$217,  "&gt;="&amp;$A34)</f>
         <v>17</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A33, y!H$2:'y'!H$217,  "&gt;="&amp;$A34)</f>
         <v>5</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A33, y!I$2:'y'!I$217,  "&gt;="&amp;$A34)</f>
         <v>2</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A33, y!J$2:'y'!J$217,  "&gt;="&amp;$A34)</f>
         <v>1</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A33, y!K$2:'y'!K$217,  "&gt;="&amp;$A34)</f>
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A33, y!L$2:'y'!L$217,  "&gt;="&amp;$A34)</f>
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A33, y!M$2:'y'!M$217,  "&gt;="&amp;$A34)</f>
         <v>0</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A33, y!N$2:'y'!N$217,  "&gt;="&amp;$A34)</f>
         <v>3</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A33, y!O$2:'y'!O$217,  "&gt;="&amp;$A34)</f>
         <v>4</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A33, y!P$2:'y'!P$217,  "&gt;="&amp;$A34)</f>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>0.8</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A34, y!A$2:'y'!A$217,  "&gt;="&amp;$A35)</f>
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A34, y!B$2:'y'!B$217,  "&gt;="&amp;$A35)</f>
         <v>11</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A34, y!C$2:'y'!C$217,  "&gt;="&amp;$A35)</f>
         <v>17</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A34, y!D$2:'y'!D$217,  "&gt;="&amp;$A35)</f>
         <v>24</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A34, y!E$2:'y'!E$217,  "&gt;="&amp;$A35)</f>
         <v>12</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A34, y!F$2:'y'!F$217,  "&gt;="&amp;$A35)</f>
         <v>34</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A34, y!G$2:'y'!G$217,  "&gt;="&amp;$A35)</f>
         <v>28</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A34, y!H$2:'y'!H$217,  "&gt;="&amp;$A35)</f>
         <v>11</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A34, y!I$2:'y'!I$217,  "&gt;="&amp;$A35)</f>
         <v>5</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A34, y!J$2:'y'!J$217,  "&gt;="&amp;$A35)</f>
         <v>2</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A34, y!K$2:'y'!K$217,  "&gt;="&amp;$A35)</f>
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A34, y!L$2:'y'!L$217,  "&gt;="&amp;$A35)</f>
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A34, y!M$2:'y'!M$217,  "&gt;="&amp;$A35)</f>
         <v>3</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A34, y!N$2:'y'!N$217,  "&gt;="&amp;$A35)</f>
         <v>5</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A34, y!O$2:'y'!O$217,  "&gt;="&amp;$A35)</f>
         <v>11</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A34, y!P$2:'y'!P$217,  "&gt;="&amp;$A35)</f>
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>0.7</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A35, y!A$2:'y'!A$217,  "&gt;="&amp;$A36)</f>
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A35, y!B$2:'y'!B$217,  "&gt;="&amp;$A36)</f>
         <v>6</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A35, y!C$2:'y'!C$217,  "&gt;="&amp;$A36)</f>
         <v>20</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A35, y!D$2:'y'!D$217,  "&gt;="&amp;$A36)</f>
         <v>22</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A35, y!E$2:'y'!E$217,  "&gt;="&amp;$A36)</f>
         <v>13</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A35, y!F$2:'y'!F$217,  "&gt;="&amp;$A36)</f>
         <v>20</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A35, y!G$2:'y'!G$217,  "&gt;="&amp;$A36)</f>
         <v>21</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A35, y!H$2:'y'!H$217,  "&gt;="&amp;$A36)</f>
         <v>15</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A35, y!I$2:'y'!I$217,  "&gt;="&amp;$A36)</f>
         <v>7</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A35, y!J$2:'y'!J$217,  "&gt;="&amp;$A36)</f>
         <v>4</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A35, y!K$2:'y'!K$217,  "&gt;="&amp;$A36)</f>
         <v>2</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A35, y!L$2:'y'!L$217,  "&gt;="&amp;$A36)</f>
         <v>3</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A35, y!M$2:'y'!M$217,  "&gt;="&amp;$A36)</f>
         <v>10</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A35, y!N$2:'y'!N$217,  "&gt;="&amp;$A36)</f>
         <v>15</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A35, y!O$2:'y'!O$217,  "&gt;="&amp;$A36)</f>
         <v>12</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A35, y!P$2:'y'!P$217,  "&gt;="&amp;$A36)</f>
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>0.6</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A36, y!A$2:'y'!A$217,  "&gt;="&amp;$A37)</f>
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A36, y!B$2:'y'!B$217,  "&gt;="&amp;$A37)</f>
         <v>13</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A36, y!C$2:'y'!C$217,  "&gt;="&amp;$A37)</f>
         <v>31</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A36, y!D$2:'y'!D$217,  "&gt;="&amp;$A37)</f>
         <v>16</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A36, y!E$2:'y'!E$217,  "&gt;="&amp;$A37)</f>
         <v>17</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A36, y!F$2:'y'!F$217,  "&gt;="&amp;$A37)</f>
         <v>26</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A36, y!G$2:'y'!G$217,  "&gt;="&amp;$A37)</f>
         <v>23</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A36, y!H$2:'y'!H$217,  "&gt;="&amp;$A37)</f>
         <v>16</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A36, y!I$2:'y'!I$217,  "&gt;="&amp;$A37)</f>
         <v>9</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A36, y!J$2:'y'!J$217,  "&gt;="&amp;$A37)</f>
         <v>18</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A36, y!K$2:'y'!K$217,  "&gt;="&amp;$A37)</f>
         <v>14</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A36, y!L$2:'y'!L$217,  "&gt;="&amp;$A37)</f>
         <v>21</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A36, y!M$2:'y'!M$217,  "&gt;="&amp;$A37)</f>
         <v>24</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A36, y!N$2:'y'!N$217,  "&gt;="&amp;$A37)</f>
         <v>20</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A36, y!O$2:'y'!O$217,  "&gt;="&amp;$A37)</f>
         <v>23</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A36, y!P$2:'y'!P$217,  "&gt;="&amp;$A37)</f>
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>0.5</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A37, y!A$2:'y'!A$217,  "&gt;="&amp;$A38)</f>
         <v>43</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A37, y!B$2:'y'!B$217,  "&gt;="&amp;$A38)</f>
         <v>36</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A37, y!C$2:'y'!C$217,  "&gt;="&amp;$A38)</f>
         <v>40</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A37, y!D$2:'y'!D$217,  "&gt;="&amp;$A38)</f>
         <v>19</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A37, y!E$2:'y'!E$217,  "&gt;="&amp;$A38)</f>
         <v>9</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A37, y!F$2:'y'!F$217,  "&gt;="&amp;$A38)</f>
         <v>13</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A37, y!G$2:'y'!G$217,  "&gt;="&amp;$A38)</f>
         <v>25</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A37, y!H$2:'y'!H$217,  "&gt;="&amp;$A38)</f>
         <v>29</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A37, y!I$2:'y'!I$217,  "&gt;="&amp;$A38)</f>
         <v>46</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A37, y!J$2:'y'!J$217,  "&gt;="&amp;$A38)</f>
         <v>34</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A37, y!K$2:'y'!K$217,  "&gt;="&amp;$A38)</f>
         <v>36</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A37, y!L$2:'y'!L$217,  "&gt;="&amp;$A38)</f>
         <v>34</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A37, y!M$2:'y'!M$217,  "&gt;="&amp;$A38)</f>
         <v>27</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A37, y!N$2:'y'!N$217,  "&gt;="&amp;$A38)</f>
         <v>37</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A37, y!O$2:'y'!O$217,  "&gt;="&amp;$A38)</f>
         <v>25</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A37, y!P$2:'y'!P$217,  "&gt;="&amp;$A38)</f>
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>0.4</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A38, y!A$2:'y'!A$217,  "&gt;="&amp;$A39)</f>
         <v>51</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A38, y!B$2:'y'!B$217,  "&gt;="&amp;$A39)</f>
         <v>54</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A38, y!C$2:'y'!C$217,  "&gt;="&amp;$A39)</f>
         <v>28</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A38, y!D$2:'y'!D$217,  "&gt;="&amp;$A39)</f>
         <v>14</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A38, y!E$2:'y'!E$217,  "&gt;="&amp;$A39)</f>
         <v>2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A38, y!F$2:'y'!F$217,  "&gt;="&amp;$A39)</f>
         <v>9</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A38, y!G$2:'y'!G$217,  "&gt;="&amp;$A39)</f>
         <v>22</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A38, y!H$2:'y'!H$217,  "&gt;="&amp;$A39)</f>
         <v>34</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A38, y!I$2:'y'!I$217,  "&gt;="&amp;$A39)</f>
         <v>36</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A38, y!J$2:'y'!J$217,  "&gt;="&amp;$A39)</f>
         <v>39</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A38, y!K$2:'y'!K$217,  "&gt;="&amp;$A39)</f>
         <v>37</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A38, y!L$2:'y'!L$217,  "&gt;="&amp;$A39)</f>
         <v>30</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A38, y!M$2:'y'!M$217,  "&gt;="&amp;$A39)</f>
         <v>37</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A38, y!N$2:'y'!N$217,  "&gt;="&amp;$A39)</f>
         <v>32</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A38, y!O$2:'y'!O$217,  "&gt;="&amp;$A39)</f>
         <v>30</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A38, y!P$2:'y'!P$217,  "&gt;="&amp;$A39)</f>
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>0.3</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A39, y!A$2:'y'!A$217,  "&gt;="&amp;$A40)</f>
         <v>39</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A39, y!B$2:'y'!B$217,  "&gt;="&amp;$A40)</f>
         <v>47</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A39, y!C$2:'y'!C$217,  "&gt;="&amp;$A40)</f>
         <v>29</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A39, y!D$2:'y'!D$217,  "&gt;="&amp;$A40)</f>
         <v>12</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A39, y!E$2:'y'!E$217,  "&gt;="&amp;$A40)</f>
         <v>5</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A39, y!F$2:'y'!F$217,  "&gt;="&amp;$A40)</f>
         <v>5</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A39, y!G$2:'y'!G$217,  "&gt;="&amp;$A40)</f>
         <v>26</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A39, y!H$2:'y'!H$217,  "&gt;="&amp;$A40)</f>
         <v>27</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A39, y!I$2:'y'!I$217,  "&gt;="&amp;$A40)</f>
         <v>28</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A39, y!J$2:'y'!J$217,  "&gt;="&amp;$A40)</f>
         <v>24</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A39, y!K$2:'y'!K$217,  "&gt;="&amp;$A40)</f>
         <v>26</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A39, y!L$2:'y'!L$217,  "&gt;="&amp;$A40)</f>
         <v>40</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A39, y!M$2:'y'!M$217,  "&gt;="&amp;$A40)</f>
         <v>31</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A39, y!N$2:'y'!N$217,  "&gt;="&amp;$A40)</f>
         <v>21</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A39, y!O$2:'y'!O$217,  "&gt;="&amp;$A40)</f>
         <v>20</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A39, y!P$2:'y'!P$217,  "&gt;="&amp;$A40)</f>
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>0.2</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A40, y!A$2:'y'!A$217,  "&gt;="&amp;$A41)</f>
         <v>31</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A40, y!B$2:'y'!B$217,  "&gt;="&amp;$A41)</f>
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A40, y!C$2:'y'!C$217,  "&gt;="&amp;$A41)</f>
         <v>16</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A40, y!D$2:'y'!D$217,  "&gt;="&amp;$A41)</f>
         <v>9</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A40, y!E$2:'y'!E$217,  "&gt;="&amp;$A41)</f>
         <v>4</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A40, y!F$2:'y'!F$217,  "&gt;="&amp;$A41)</f>
         <v>5</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A40, y!G$2:'y'!G$217,  "&gt;="&amp;$A41)</f>
         <v>10</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A40, y!H$2:'y'!H$217,  "&gt;="&amp;$A41)</f>
         <v>20</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A40, y!I$2:'y'!I$217,  "&gt;="&amp;$A41)</f>
         <v>13</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A40, y!J$2:'y'!J$217,  "&gt;="&amp;$A41)</f>
         <v>22</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A40, y!K$2:'y'!K$217,  "&gt;="&amp;$A41)</f>
         <v>27</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A40, y!L$2:'y'!L$217,  "&gt;="&amp;$A41)</f>
         <v>14</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A40, y!M$2:'y'!M$217,  "&gt;="&amp;$A41)</f>
         <v>12</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A40, y!N$2:'y'!N$217,  "&gt;="&amp;$A41)</f>
         <v>11</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A40, y!O$2:'y'!O$217,  "&gt;="&amp;$A41)</f>
         <v>8</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A40, y!P$2:'y'!P$217,  "&gt;="&amp;$A41)</f>
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>0.1</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A41, y!A$2:'y'!A$217,  "&gt;="&amp;$A42)</f>
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A41, y!B$2:'y'!B$217,  "&gt;="&amp;$A42)</f>
         <v>9</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A41, y!C$2:'y'!C$217,  "&gt;="&amp;$A42)</f>
         <v>11</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A41, y!D$2:'y'!D$217,  "&gt;="&amp;$A42)</f>
         <v>8</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A41, y!E$2:'y'!E$217,  "&gt;="&amp;$A42)</f>
         <v>4</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A41, y!F$2:'y'!F$217,  "&gt;="&amp;$A42)</f>
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A41, y!G$2:'y'!G$217,  "&gt;="&amp;$A42)</f>
         <v>6</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A41, y!H$2:'y'!H$217,  "&gt;="&amp;$A42)</f>
         <v>10</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A41, y!I$2:'y'!I$217,  "&gt;="&amp;$A42)</f>
         <v>18</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A41, y!J$2:'y'!J$217,  "&gt;="&amp;$A42)</f>
         <v>19</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A41, y!K$2:'y'!K$217,  "&gt;="&amp;$A42)</f>
         <v>21</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A41, y!L$2:'y'!L$217,  "&gt;="&amp;$A42)</f>
         <v>17</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A41, y!M$2:'y'!M$217,  "&gt;="&amp;$A42)</f>
         <v>21</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A41, y!N$2:'y'!N$217,  "&gt;="&amp;$A42)</f>
         <v>9</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A41, y!O$2:'y'!O$217,  "&gt;="&amp;$A42)</f>
         <v>17</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A41, y!P$2:'y'!P$217,  "&gt;="&amp;$A42)</f>
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42">
+      <c r="A42" s="2">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A42, y!A$2:'y'!A$217,  "&gt;="&amp;$A43)</f>
         <v>11</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A42, y!B$2:'y'!B$217,  "&gt;="&amp;$A43)</f>
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A42, y!C$2:'y'!C$217,  "&gt;="&amp;$A43)</f>
         <v>9</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A42, y!D$2:'y'!D$217,  "&gt;="&amp;$A43)</f>
         <v>2</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A42, y!E$2:'y'!E$217,  "&gt;="&amp;$A43)</f>
         <v>2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A42, y!F$2:'y'!F$217,  "&gt;="&amp;$A43)</f>
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A42, y!G$2:'y'!G$217,  "&gt;="&amp;$A43)</f>
         <v>8</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A42, y!H$2:'y'!H$217,  "&gt;="&amp;$A43)</f>
         <v>12</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A42, y!I$2:'y'!I$217,  "&gt;="&amp;$A43)</f>
         <v>10</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A42, y!J$2:'y'!J$217,  "&gt;="&amp;$A43)</f>
         <v>15</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A42, y!K$2:'y'!K$217,  "&gt;="&amp;$A43)</f>
         <v>14</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A42, y!L$2:'y'!L$217,  "&gt;="&amp;$A43)</f>
         <v>16</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A42, y!M$2:'y'!M$217,  "&gt;="&amp;$A43)</f>
         <v>13</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A42, y!N$2:'y'!N$217,  "&gt;="&amp;$A43)</f>
         <v>19</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A42, y!O$2:'y'!O$217,  "&gt;="&amp;$A43)</f>
         <v>10</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A42, y!P$2:'y'!P$217,  "&gt;="&amp;$A43)</f>
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>-9.9999999999999006E-2</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A43, y!A$2:'y'!A$217,  "&gt;="&amp;$A44)</f>
         <v>5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A43, y!B$2:'y'!B$217,  "&gt;="&amp;$A44)</f>
         <v>2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A43, y!C$2:'y'!C$217,  "&gt;="&amp;$A44)</f>
         <v>3</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A43, y!D$2:'y'!D$217,  "&gt;="&amp;$A44)</f>
         <v>2</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A43, y!E$2:'y'!E$217,  "&gt;="&amp;$A44)</f>
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A43, y!F$2:'y'!F$217,  "&gt;="&amp;$A44)</f>
         <v>1</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A43, y!G$2:'y'!G$217,  "&gt;="&amp;$A44)</f>
         <v>5</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A43, y!H$2:'y'!H$217,  "&gt;="&amp;$A44)</f>
         <v>13</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A43, y!I$2:'y'!I$217,  "&gt;="&amp;$A44)</f>
         <v>14</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A43, y!J$2:'y'!J$217,  "&gt;="&amp;$A44)</f>
         <v>12</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A43, y!K$2:'y'!K$217,  "&gt;="&amp;$A44)</f>
         <v>10</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A43, y!L$2:'y'!L$217,  "&gt;="&amp;$A44)</f>
         <v>7</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A43, y!M$2:'y'!M$217,  "&gt;="&amp;$A44)</f>
         <v>10</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A43, y!N$2:'y'!N$217,  "&gt;="&amp;$A44)</f>
         <v>10</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A43, y!O$2:'y'!O$217,  "&gt;="&amp;$A44)</f>
         <v>12</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A43, y!P$2:'y'!P$217,  "&gt;="&amp;$A44)</f>
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>-0.19999999999999901</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A44, y!A$2:'y'!A$217,  "&gt;="&amp;$A45)</f>
         <v>0</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A44, y!B$2:'y'!B$217,  "&gt;="&amp;$A45)</f>
         <v>0</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A44, y!C$2:'y'!C$217,  "&gt;="&amp;$A45)</f>
         <v>1</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A44, y!D$2:'y'!D$217,  "&gt;="&amp;$A45)</f>
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A44, y!E$2:'y'!E$217,  "&gt;="&amp;$A45)</f>
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A44, y!F$2:'y'!F$217,  "&gt;="&amp;$A45)</f>
         <v>1</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A44, y!G$2:'y'!G$217,  "&gt;="&amp;$A45)</f>
         <v>4</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A44, y!H$2:'y'!H$217,  "&gt;="&amp;$A45)</f>
         <v>11</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A44, y!I$2:'y'!I$217,  "&gt;="&amp;$A45)</f>
         <v>11</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A44, y!J$2:'y'!J$217,  "&gt;="&amp;$A45)</f>
         <v>15</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A44, y!K$2:'y'!K$217,  "&gt;="&amp;$A45)</f>
         <v>15</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A44, y!L$2:'y'!L$217,  "&gt;="&amp;$A45)</f>
         <v>11</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A44, y!M$2:'y'!M$217,  "&gt;="&amp;$A45)</f>
         <v>5</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A44, y!N$2:'y'!N$217,  "&gt;="&amp;$A45)</f>
         <v>5</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A44, y!O$2:'y'!O$217,  "&gt;="&amp;$A45)</f>
         <v>6</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A44, y!P$2:'y'!P$217,  "&gt;="&amp;$A45)</f>
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>-0.29999999999999899</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A45, y!A$2:'y'!A$217,  "&gt;="&amp;$A46)</f>
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A45, y!B$2:'y'!B$217,  "&gt;="&amp;$A46)</f>
         <v>0</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A45, y!C$2:'y'!C$217,  "&gt;="&amp;$A46)</f>
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A45, y!D$2:'y'!D$217,  "&gt;="&amp;$A46)</f>
         <v>0</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A45, y!E$2:'y'!E$217,  "&gt;="&amp;$A46)</f>
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A45, y!F$2:'y'!F$217,  "&gt;="&amp;$A46)</f>
         <v>0</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A45, y!G$2:'y'!G$217,  "&gt;="&amp;$A46)</f>
         <v>3</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A45, y!H$2:'y'!H$217,  "&gt;="&amp;$A46)</f>
         <v>6</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A45, y!I$2:'y'!I$217,  "&gt;="&amp;$A46)</f>
         <v>8</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A45, y!J$2:'y'!J$217,  "&gt;="&amp;$A46)</f>
         <v>3</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A45, y!K$2:'y'!K$217,  "&gt;="&amp;$A46)</f>
         <v>5</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A45, y!L$2:'y'!L$217,  "&gt;="&amp;$A46)</f>
         <v>9</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A45, y!M$2:'y'!M$217,  "&gt;="&amp;$A46)</f>
         <v>6</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A45, y!N$2:'y'!N$217,  "&gt;="&amp;$A46)</f>
         <v>4</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A45, y!O$2:'y'!O$217,  "&gt;="&amp;$A46)</f>
         <v>3</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A45, y!P$2:'y'!P$217,  "&gt;="&amp;$A46)</f>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>-0.39999999999999902</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A46, y!A$2:'y'!A$217,  "&gt;="&amp;$A47)</f>
         <v>0</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A46, y!B$2:'y'!B$217,  "&gt;="&amp;$A47)</f>
         <v>0</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A46, y!C$2:'y'!C$217,  "&gt;="&amp;$A47)</f>
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A46, y!D$2:'y'!D$217,  "&gt;="&amp;$A47)</f>
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A46, y!E$2:'y'!E$217,  "&gt;="&amp;$A47)</f>
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A46, y!F$2:'y'!F$217,  "&gt;="&amp;$A47)</f>
         <v>0</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A46, y!G$2:'y'!G$217,  "&gt;="&amp;$A47)</f>
         <v>2</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A46, y!H$2:'y'!H$217,  "&gt;="&amp;$A47)</f>
         <v>2</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A46, y!I$2:'y'!I$217,  "&gt;="&amp;$A47)</f>
         <v>4</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A46, y!J$2:'y'!J$217,  "&gt;="&amp;$A47)</f>
         <v>4</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A46, y!K$2:'y'!K$217,  "&gt;="&amp;$A47)</f>
         <v>4</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A46, y!L$2:'y'!L$217,  "&gt;="&amp;$A47)</f>
         <v>2</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A46, y!M$2:'y'!M$217,  "&gt;="&amp;$A47)</f>
         <v>4</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A46, y!N$2:'y'!N$217,  "&gt;="&amp;$A47)</f>
         <v>6</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A46, y!O$2:'y'!O$217,  "&gt;="&amp;$A47)</f>
         <v>2</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A46, y!P$2:'y'!P$217,  "&gt;="&amp;$A47)</f>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>-0.5</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A47, y!A$2:'y'!A$217,  "&gt;="&amp;$A48)</f>
         <v>0</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A47, y!B$2:'y'!B$217,  "&gt;="&amp;$A48)</f>
         <v>0</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A47, y!C$2:'y'!C$217,  "&gt;="&amp;$A48)</f>
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A47, y!D$2:'y'!D$217,  "&gt;="&amp;$A48)</f>
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A47, y!E$2:'y'!E$217,  "&gt;="&amp;$A48)</f>
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A47, y!F$2:'y'!F$217,  "&gt;="&amp;$A48)</f>
         <v>0</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A47, y!G$2:'y'!G$217,  "&gt;="&amp;$A48)</f>
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A47, y!H$2:'y'!H$217,  "&gt;="&amp;$A48)</f>
         <v>1</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A47, y!I$2:'y'!I$217,  "&gt;="&amp;$A48)</f>
         <v>1</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A47, y!J$2:'y'!J$217,  "&gt;="&amp;$A48)</f>
         <v>1</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A47, y!K$2:'y'!K$217,  "&gt;="&amp;$A48)</f>
         <v>3</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A47, y!L$2:'y'!L$217,  "&gt;="&amp;$A48)</f>
         <v>5</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A47, y!M$2:'y'!M$217,  "&gt;="&amp;$A48)</f>
         <v>5</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A47, y!N$2:'y'!N$217,  "&gt;="&amp;$A48)</f>
         <v>6</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A47, y!O$2:'y'!O$217,  "&gt;="&amp;$A48)</f>
         <v>2</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A47, y!P$2:'y'!P$217,  "&gt;="&amp;$A48)</f>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>-0.6</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A48, y!A$2:'y'!A$217,  "&gt;="&amp;$A49)</f>
         <v>1</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A48, y!B$2:'y'!B$217,  "&gt;="&amp;$A49)</f>
         <v>0</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A48, y!C$2:'y'!C$217,  "&gt;="&amp;$A49)</f>
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A48, y!D$2:'y'!D$217,  "&gt;="&amp;$A49)</f>
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A48, y!E$2:'y'!E$217,  "&gt;="&amp;$A49)</f>
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A48, y!F$2:'y'!F$217,  "&gt;="&amp;$A49)</f>
         <v>0</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A48, y!G$2:'y'!G$217,  "&gt;="&amp;$A49)</f>
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A48, y!H$2:'y'!H$217,  "&gt;="&amp;$A49)</f>
         <v>0</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A48, y!I$2:'y'!I$217,  "&gt;="&amp;$A49)</f>
         <v>1</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A48, y!J$2:'y'!J$217,  "&gt;="&amp;$A49)</f>
         <v>1</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A48, y!K$2:'y'!K$217,  "&gt;="&amp;$A49)</f>
         <v>1</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A48, y!L$2:'y'!L$217,  "&gt;="&amp;$A49)</f>
         <v>5</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A48, y!M$2:'y'!M$217,  "&gt;="&amp;$A49)</f>
         <v>4</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A48, y!N$2:'y'!N$217,  "&gt;="&amp;$A49)</f>
         <v>4</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A48, y!O$2:'y'!O$217,  "&gt;="&amp;$A49)</f>
         <v>5</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A48, y!P$2:'y'!P$217,  "&gt;="&amp;$A49)</f>
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>-0.7</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A49, y!A$2:'y'!A$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A49, y!B$2:'y'!B$217,  "&gt;="&amp;$A50)</f>
         <v>1</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A49, y!C$2:'y'!C$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A49, y!D$2:'y'!D$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A49, y!E$2:'y'!E$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A49, y!F$2:'y'!F$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A49, y!G$2:'y'!G$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A49, y!H$2:'y'!H$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A49, y!I$2:'y'!I$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A49, y!J$2:'y'!J$217,  "&gt;="&amp;$A50)</f>
         <v>1</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A49, y!K$2:'y'!K$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A49, y!L$2:'y'!L$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A49, y!M$2:'y'!M$217,  "&gt;="&amp;$A50)</f>
         <v>1</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A49, y!N$2:'y'!N$217,  "&gt;="&amp;$A50)</f>
         <v>0</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A49, y!O$2:'y'!O$217,  "&gt;="&amp;$A50)</f>
         <v>4</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A49, y!P$2:'y'!P$217,  "&gt;="&amp;$A50)</f>
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>-0.8</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A50, y!A$2:'y'!A$217,  "&gt;="&amp;$A51)</f>
         <v>0</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A50, y!B$2:'y'!B$217,  "&gt;="&amp;$A51)</f>
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A50, y!C$2:'y'!C$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A50, y!D$2:'y'!D$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A50, y!E$2:'y'!E$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A50, y!F$2:'y'!F$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A50, y!G$2:'y'!G$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A50, y!H$2:'y'!H$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A50, y!I$2:'y'!I$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A50, y!J$2:'y'!J$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A50, y!K$2:'y'!K$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A50, y!L$2:'y'!L$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A50, y!M$2:'y'!M$217,  "&gt;="&amp;$A51)</f>
         <v>2</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A50, y!N$2:'y'!N$217,  "&gt;="&amp;$A51)</f>
         <v>1</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A50, y!O$2:'y'!O$217,  "&gt;="&amp;$A51)</f>
         <v>0</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A50, y!P$2:'y'!P$217,  "&gt;="&amp;$A51)</f>
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>-0.9</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A51, y!A$2:'y'!A$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A51, y!B$2:'y'!B$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A51, y!C$2:'y'!C$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A51, y!D$2:'y'!D$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A51, y!E$2:'y'!E$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A51, y!F$2:'y'!F$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A51, y!G$2:'y'!G$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A51, y!H$2:'y'!H$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A51, y!I$2:'y'!I$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A51, y!J$2:'y'!J$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A51, y!K$2:'y'!K$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A51, y!L$2:'y'!L$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A51, y!M$2:'y'!M$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A51, y!N$2:'y'!N$217,  "&gt;="&amp;$A52)</f>
         <v>0</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A51, y!O$2:'y'!O$217,  "&gt;="&amp;$A52)</f>
         <v>1</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A51, y!P$2:'y'!P$217,  "&gt;="&amp;$A52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>-1</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A52, y!A$2:'y'!A$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A52, y!B$2:'y'!B$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A52, y!C$2:'y'!C$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A52, y!D$2:'y'!D$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A52, y!E$2:'y'!E$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A52, y!F$2:'y'!F$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A52, y!G$2:'y'!G$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A52, y!H$2:'y'!H$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A52, y!I$2:'y'!I$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A52, y!J$2:'y'!J$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A52, y!K$2:'y'!K$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A52, y!L$2:'y'!L$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A52, y!M$2:'y'!M$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A52, y!N$2:'y'!N$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A52, y!O$2:'y'!O$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A52, y!P$2:'y'!P$217,  "&gt;="&amp;$A53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A53, y!A$2:'y'!A$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A53, y!B$2:'y'!B$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A53, y!C$2:'y'!C$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A53, y!D$2:'y'!D$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A53, y!E$2:'y'!E$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A53, y!F$2:'y'!F$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A53, y!G$2:'y'!G$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A53, y!H$2:'y'!H$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A53, y!I$2:'y'!I$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A53, y!J$2:'y'!J$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A53, y!K$2:'y'!K$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A53, y!L$2:'y'!L$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A53, y!M$2:'y'!M$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A53, y!N$2:'y'!N$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A53, y!O$2:'y'!O$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A53, y!P$2:'y'!P$217,  "&gt;="&amp;$A54)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>-1.2</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <f>COUNTIFS(y!A$2:'y'!A$217, "&lt;"&amp;$A54, y!A$2:'y'!A$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <f>COUNTIFS(y!B$2:'y'!B$217, "&lt;"&amp;$A54, y!B$2:'y'!B$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <f>COUNTIFS(y!C$2:'y'!C$217, "&lt;"&amp;$A54, y!C$2:'y'!C$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <f>COUNTIFS(y!D$2:'y'!D$217, "&lt;"&amp;$A54, y!D$2:'y'!D$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <f>COUNTIFS(y!E$2:'y'!E$217, "&lt;"&amp;$A54, y!E$2:'y'!E$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <f>COUNTIFS(y!F$2:'y'!F$217, "&lt;"&amp;$A54, y!F$2:'y'!F$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <f>COUNTIFS(y!G$2:'y'!G$217, "&lt;"&amp;$A54, y!G$2:'y'!G$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <f>COUNTIFS(y!H$2:'y'!H$217, "&lt;"&amp;$A54, y!H$2:'y'!H$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="2">
         <f>COUNTIFS(y!I$2:'y'!I$217, "&lt;"&amp;$A54, y!I$2:'y'!I$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="2">
         <f>COUNTIFS(y!J$2:'y'!J$217, "&lt;"&amp;$A54, y!J$2:'y'!J$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <f>COUNTIFS(y!K$2:'y'!K$217, "&lt;"&amp;$A54, y!K$2:'y'!K$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="2">
         <f>COUNTIFS(y!L$2:'y'!L$217, "&lt;"&amp;$A54, y!L$2:'y'!L$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="2">
         <f>COUNTIFS(y!M$2:'y'!M$217, "&lt;"&amp;$A54, y!M$2:'y'!M$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="2">
         <f>COUNTIFS(y!N$2:'y'!N$217, "&lt;"&amp;$A54, y!N$2:'y'!N$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="2">
         <f>COUNTIFS(y!O$2:'y'!O$217, "&lt;"&amp;$A54, y!O$2:'y'!O$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="2">
         <f>COUNTIFS(y!P$2:'y'!P$217, "&lt;"&amp;$A54, y!P$2:'y'!P$217,  "&gt;="&amp;$A55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>1.2</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A58, z!A$2:'z'!A$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A58, z!B$2:'z'!B$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A58, z!C$2:'z'!C$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A58, z!D$2:'z'!D$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A58, z!E$2:'z'!E$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A58, z!F$2:'z'!F$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A58, z!G$2:'z'!G$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A58, z!H$2:'z'!H$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A58, z!I$2:'z'!I$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A58, z!J$2:'z'!J$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A58, z!K$2:'z'!K$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A58, z!L$2:'z'!L$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A58, z!M$2:'z'!M$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A58, z!N$2:'z'!N$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A58, z!O$2:'z'!O$217,  "&gt;="&amp;$A59)</f>
         <v>0</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A58, z!P$2:'z'!P$217,  "&gt;="&amp;$A59)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A59, z!A$2:'z'!A$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A59, z!B$2:'z'!B$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A59, z!C$2:'z'!C$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A59, z!D$2:'z'!D$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A59, z!E$2:'z'!E$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A59, z!F$2:'z'!F$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A59, z!G$2:'z'!G$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A59, z!H$2:'z'!H$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A59, z!I$2:'z'!I$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A59, z!J$2:'z'!J$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A59, z!K$2:'z'!K$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A59, z!L$2:'z'!L$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A59, z!M$2:'z'!M$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A59, z!N$2:'z'!N$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A59, z!O$2:'z'!O$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A59, z!P$2:'z'!P$217,  "&gt;="&amp;$A60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>1</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A60, z!A$2:'z'!A$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A60, z!B$2:'z'!B$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A60, z!C$2:'z'!C$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A60, z!D$2:'z'!D$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A60, z!E$2:'z'!E$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A60, z!F$2:'z'!F$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A60, z!G$2:'z'!G$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A60, z!H$2:'z'!H$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A60, z!I$2:'z'!I$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A60, z!J$2:'z'!J$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A60, z!K$2:'z'!K$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A60, z!L$2:'z'!L$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A60, z!M$2:'z'!M$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A60, z!N$2:'z'!N$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A60, z!O$2:'z'!O$217,  "&gt;="&amp;$A61)</f>
         <v>1</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A60, z!P$2:'z'!P$217,  "&gt;="&amp;$A61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>0.9</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A61, z!A$2:'z'!A$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A61, z!B$2:'z'!B$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A61, z!C$2:'z'!C$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A61, z!D$2:'z'!D$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A61, z!E$2:'z'!E$217,  "&gt;="&amp;$A62)</f>
         <v>1</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A61, z!F$2:'z'!F$217,  "&gt;="&amp;$A62)</f>
         <v>1</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A61, z!G$2:'z'!G$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A61, z!H$2:'z'!H$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A61, z!I$2:'z'!I$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A61, z!J$2:'z'!J$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A61, z!K$2:'z'!K$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A61, z!L$2:'z'!L$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A61, z!M$2:'z'!M$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A61, z!N$2:'z'!N$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A61, z!O$2:'z'!O$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A61, z!P$2:'z'!P$217,  "&gt;="&amp;$A62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>0.8</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A62, z!A$2:'z'!A$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A62, z!B$2:'z'!B$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A62, z!C$2:'z'!C$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A62, z!D$2:'z'!D$217,  "&gt;="&amp;$A63)</f>
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A62, z!E$2:'z'!E$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A62, z!F$2:'z'!F$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A62, z!G$2:'z'!G$217,  "&gt;="&amp;$A63)</f>
         <v>1</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A62, z!H$2:'z'!H$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A62, z!I$2:'z'!I$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A62, z!J$2:'z'!J$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A62, z!K$2:'z'!K$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A62, z!L$2:'z'!L$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A62, z!M$2:'z'!M$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A62, z!N$2:'z'!N$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A62, z!O$2:'z'!O$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A62, z!P$2:'z'!P$217,  "&gt;="&amp;$A63)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>0.7</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A63, z!A$2:'z'!A$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A63, z!B$2:'z'!B$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A63, z!C$2:'z'!C$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A63, z!D$2:'z'!D$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A63, z!E$2:'z'!E$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A63, z!F$2:'z'!F$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A63, z!G$2:'z'!G$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A63, z!H$2:'z'!H$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A63, z!I$2:'z'!I$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A63, z!J$2:'z'!J$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A63, z!K$2:'z'!K$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A63, z!L$2:'z'!L$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A63, z!M$2:'z'!M$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A63, z!N$2:'z'!N$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A63, z!O$2:'z'!O$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A63, z!P$2:'z'!P$217,  "&gt;="&amp;$A64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>0.6</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A64, z!A$2:'z'!A$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A64, z!B$2:'z'!B$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A64, z!C$2:'z'!C$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A64, z!D$2:'z'!D$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A64, z!E$2:'z'!E$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A64, z!F$2:'z'!F$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A64, z!G$2:'z'!G$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A64, z!H$2:'z'!H$217,  "&gt;="&amp;$A65)</f>
         <v>1</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A64, z!I$2:'z'!I$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A64, z!J$2:'z'!J$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A64, z!K$2:'z'!K$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A64, z!L$2:'z'!L$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A64, z!M$2:'z'!M$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A64, z!N$2:'z'!N$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A64, z!O$2:'z'!O$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A64, z!P$2:'z'!P$217,  "&gt;="&amp;$A65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>0.5</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A65, z!A$2:'z'!A$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A65, z!B$2:'z'!B$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A65, z!C$2:'z'!C$217,  "&gt;="&amp;$A66)</f>
         <v>2</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A65, z!D$2:'z'!D$217,  "&gt;="&amp;$A66)</f>
         <v>1</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A65, z!E$2:'z'!E$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A65, z!F$2:'z'!F$217,  "&gt;="&amp;$A66)</f>
         <v>1</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A65, z!G$2:'z'!G$217,  "&gt;="&amp;$A66)</f>
         <v>1</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A65, z!H$2:'z'!H$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A65, z!I$2:'z'!I$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A65, z!J$2:'z'!J$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A65, z!K$2:'z'!K$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A65, z!L$2:'z'!L$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A65, z!M$2:'z'!M$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A65, z!N$2:'z'!N$217,  "&gt;="&amp;$A66)</f>
         <v>0</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A65, z!O$2:'z'!O$217,  "&gt;="&amp;$A66)</f>
         <v>1</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A65, z!P$2:'z'!P$217,  "&gt;="&amp;$A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>0.4</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A66, z!A$2:'z'!A$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A66, z!B$2:'z'!B$217,  "&gt;="&amp;$A67)</f>
         <v>1</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A66, z!C$2:'z'!C$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A66, z!D$2:'z'!D$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A66, z!E$2:'z'!E$217,  "&gt;="&amp;$A67)</f>
         <v>1</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A66, z!F$2:'z'!F$217,  "&gt;="&amp;$A67)</f>
         <v>2</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A66, z!G$2:'z'!G$217,  "&gt;="&amp;$A67)</f>
         <v>1</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A66, z!H$2:'z'!H$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A66, z!I$2:'z'!I$217,  "&gt;="&amp;$A67)</f>
         <v>1</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A66, z!J$2:'z'!J$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A66, z!K$2:'z'!K$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A66, z!L$2:'z'!L$217,  "&gt;="&amp;$A67)</f>
         <v>1</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A66, z!M$2:'z'!M$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A66, z!N$2:'z'!N$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A66, z!O$2:'z'!O$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A66, z!P$2:'z'!P$217,  "&gt;="&amp;$A67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>0.3</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A67, z!A$2:'z'!A$217,  "&gt;="&amp;$A68)</f>
         <v>1</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A67, z!B$2:'z'!B$217,  "&gt;="&amp;$A68)</f>
         <v>1</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A67, z!C$2:'z'!C$217,  "&gt;="&amp;$A68)</f>
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A67, z!D$2:'z'!D$217,  "&gt;="&amp;$A68)</f>
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A67, z!E$2:'z'!E$217,  "&gt;="&amp;$A68)</f>
         <v>2</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A67, z!F$2:'z'!F$217,  "&gt;="&amp;$A68)</f>
         <v>4</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A67, z!G$2:'z'!G$217,  "&gt;="&amp;$A68)</f>
         <v>4</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A67, z!H$2:'z'!H$217,  "&gt;="&amp;$A68)</f>
         <v>2</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A67, z!I$2:'z'!I$217,  "&gt;="&amp;$A68)</f>
         <v>2</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A67, z!J$2:'z'!J$217,  "&gt;="&amp;$A68)</f>
         <v>1</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A67, z!K$2:'z'!K$217,  "&gt;="&amp;$A68)</f>
         <v>1</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A67, z!L$2:'z'!L$217,  "&gt;="&amp;$A68)</f>
         <v>2</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A67, z!M$2:'z'!M$217,  "&gt;="&amp;$A68)</f>
         <v>3</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A67, z!N$2:'z'!N$217,  "&gt;="&amp;$A68)</f>
         <v>1</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A67, z!O$2:'z'!O$217,  "&gt;="&amp;$A68)</f>
         <v>2</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A67, z!P$2:'z'!P$217,  "&gt;="&amp;$A68)</f>
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>0.2</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A68, z!A$2:'z'!A$217,  "&gt;="&amp;$A69)</f>
         <v>1</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A68, z!B$2:'z'!B$217,  "&gt;="&amp;$A69)</f>
         <v>0</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A68, z!C$2:'z'!C$217,  "&gt;="&amp;$A69)</f>
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A68, z!D$2:'z'!D$217,  "&gt;="&amp;$A69)</f>
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A68, z!E$2:'z'!E$217,  "&gt;="&amp;$A69)</f>
         <v>1</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A68, z!F$2:'z'!F$217,  "&gt;="&amp;$A69)</f>
         <v>12</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A68, z!G$2:'z'!G$217,  "&gt;="&amp;$A69)</f>
         <v>13</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A68, z!H$2:'z'!H$217,  "&gt;="&amp;$A69)</f>
         <v>11</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A68, z!I$2:'z'!I$217,  "&gt;="&amp;$A69)</f>
         <v>3</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A68, z!J$2:'z'!J$217,  "&gt;="&amp;$A69)</f>
         <v>1</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A68, z!K$2:'z'!K$217,  "&gt;="&amp;$A69)</f>
         <v>7</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A68, z!L$2:'z'!L$217,  "&gt;="&amp;$A69)</f>
         <v>2</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A68, z!M$2:'z'!M$217,  "&gt;="&amp;$A69)</f>
         <v>4</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A68, z!N$2:'z'!N$217,  "&gt;="&amp;$A69)</f>
         <v>8</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A68, z!O$2:'z'!O$217,  "&gt;="&amp;$A69)</f>
         <v>5</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A68, z!P$2:'z'!P$217,  "&gt;="&amp;$A69)</f>
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>0.1</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A69, z!A$2:'z'!A$217,  "&gt;="&amp;$A70)</f>
         <v>0</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A69, z!B$2:'z'!B$217,  "&gt;="&amp;$A70)</f>
         <v>0</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A69, z!C$2:'z'!C$217,  "&gt;="&amp;$A70)</f>
         <v>0</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A69, z!D$2:'z'!D$217,  "&gt;="&amp;$A70)</f>
         <v>0</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A69, z!E$2:'z'!E$217,  "&gt;="&amp;$A70)</f>
         <v>4</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A69, z!F$2:'z'!F$217,  "&gt;="&amp;$A70)</f>
         <v>15</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A69, z!G$2:'z'!G$217,  "&gt;="&amp;$A70)</f>
         <v>22</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A69, z!H$2:'z'!H$217,  "&gt;="&amp;$A70)</f>
         <v>11</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A69, z!I$2:'z'!I$217,  "&gt;="&amp;$A70)</f>
         <v>9</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A69, z!J$2:'z'!J$217,  "&gt;="&amp;$A70)</f>
         <v>13</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A69, z!K$2:'z'!K$217,  "&gt;="&amp;$A70)</f>
         <v>17</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A69, z!L$2:'z'!L$217,  "&gt;="&amp;$A70)</f>
         <v>22</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A69, z!M$2:'z'!M$217,  "&gt;="&amp;$A70)</f>
         <v>20</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A69, z!N$2:'z'!N$217,  "&gt;="&amp;$A70)</f>
         <v>19</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A69, z!O$2:'z'!O$217,  "&gt;="&amp;$A70)</f>
         <v>11</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A69, z!P$2:'z'!P$217,  "&gt;="&amp;$A70)</f>
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>0</v>
-      </c>
-      <c r="B70">
+      <c r="A70" s="2">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A70, z!A$2:'z'!A$217,  "&gt;="&amp;$A71)</f>
         <v>1</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A70, z!B$2:'z'!B$217,  "&gt;="&amp;$A71)</f>
         <v>1</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A70, z!C$2:'z'!C$217,  "&gt;="&amp;$A71)</f>
         <v>0</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A70, z!D$2:'z'!D$217,  "&gt;="&amp;$A71)</f>
         <v>0</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A70, z!E$2:'z'!E$217,  "&gt;="&amp;$A71)</f>
         <v>5</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A70, z!F$2:'z'!F$217,  "&gt;="&amp;$A71)</f>
         <v>18</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A70, z!G$2:'z'!G$217,  "&gt;="&amp;$A71)</f>
         <v>39</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A70, z!H$2:'z'!H$217,  "&gt;="&amp;$A71)</f>
         <v>39</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A70, z!I$2:'z'!I$217,  "&gt;="&amp;$A71)</f>
         <v>37</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A70, z!J$2:'z'!J$217,  "&gt;="&amp;$A71)</f>
         <v>38</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A70, z!K$2:'z'!K$217,  "&gt;="&amp;$A71)</f>
         <v>29</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A70, z!L$2:'z'!L$217,  "&gt;="&amp;$A71)</f>
         <v>28</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A70, z!M$2:'z'!M$217,  "&gt;="&amp;$A71)</f>
         <v>30</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A70, z!N$2:'z'!N$217,  "&gt;="&amp;$A71)</f>
         <v>32</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A70, z!O$2:'z'!O$217,  "&gt;="&amp;$A71)</f>
         <v>36</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A70, z!P$2:'z'!P$217,  "&gt;="&amp;$A71)</f>
         <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>-9.9999999999999006E-2</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A71, z!A$2:'z'!A$217,  "&gt;="&amp;$A72)</f>
         <v>1</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A71, z!B$2:'z'!B$217,  "&gt;="&amp;$A72)</f>
         <v>1</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A71, z!C$2:'z'!C$217,  "&gt;="&amp;$A72)</f>
         <v>2</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A71, z!D$2:'z'!D$217,  "&gt;="&amp;$A72)</f>
         <v>1</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A71, z!E$2:'z'!E$217,  "&gt;="&amp;$A72)</f>
         <v>3</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A71, z!F$2:'z'!F$217,  "&gt;="&amp;$A72)</f>
         <v>19</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A71, z!G$2:'z'!G$217,  "&gt;="&amp;$A72)</f>
         <v>38</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A71, z!H$2:'z'!H$217,  "&gt;="&amp;$A72)</f>
         <v>54</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A71, z!I$2:'z'!I$217,  "&gt;="&amp;$A72)</f>
         <v>38</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A71, z!J$2:'z'!J$217,  "&gt;="&amp;$A72)</f>
         <v>34</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A71, z!K$2:'z'!K$217,  "&gt;="&amp;$A72)</f>
         <v>30</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A71, z!L$2:'z'!L$217,  "&gt;="&amp;$A72)</f>
         <v>44</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A71, z!M$2:'z'!M$217,  "&gt;="&amp;$A72)</f>
         <v>37</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A71, z!N$2:'z'!N$217,  "&gt;="&amp;$A72)</f>
         <v>36</v>
       </c>
-      <c r="P71">
+      <c r="P71" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A71, z!O$2:'z'!O$217,  "&gt;="&amp;$A72)</f>
         <v>32</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A71, z!P$2:'z'!P$217,  "&gt;="&amp;$A72)</f>
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>-0.19999999999999901</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A72, z!A$2:'z'!A$217,  "&gt;="&amp;$A73)</f>
         <v>0</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A72, z!B$2:'z'!B$217,  "&gt;="&amp;$A73)</f>
         <v>0</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A72, z!C$2:'z'!C$217,  "&gt;="&amp;$A73)</f>
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A72, z!D$2:'z'!D$217,  "&gt;="&amp;$A73)</f>
         <v>1</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A72, z!E$2:'z'!E$217,  "&gt;="&amp;$A73)</f>
         <v>8</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A72, z!F$2:'z'!F$217,  "&gt;="&amp;$A73)</f>
         <v>25</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A72, z!G$2:'z'!G$217,  "&gt;="&amp;$A73)</f>
         <v>35</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A72, z!H$2:'z'!H$217,  "&gt;="&amp;$A73)</f>
         <v>53</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A72, z!I$2:'z'!I$217,  "&gt;="&amp;$A73)</f>
         <v>48</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A72, z!J$2:'z'!J$217,  "&gt;="&amp;$A73)</f>
         <v>35</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A72, z!K$2:'z'!K$217,  "&gt;="&amp;$A73)</f>
         <v>55</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A72, z!L$2:'z'!L$217,  "&gt;="&amp;$A73)</f>
         <v>41</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A72, z!M$2:'z'!M$217,  "&gt;="&amp;$A73)</f>
         <v>39</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A72, z!N$2:'z'!N$217,  "&gt;="&amp;$A73)</f>
         <v>44</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A72, z!O$2:'z'!O$217,  "&gt;="&amp;$A73)</f>
         <v>31</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A72, z!P$2:'z'!P$217,  "&gt;="&amp;$A73)</f>
         <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>-0.29999999999999899</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A73, z!A$2:'z'!A$217,  "&gt;="&amp;$A74)</f>
         <v>0</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A73, z!B$2:'z'!B$217,  "&gt;="&amp;$A74)</f>
         <v>0</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A73, z!C$2:'z'!C$217,  "&gt;="&amp;$A74)</f>
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A73, z!D$2:'z'!D$217,  "&gt;="&amp;$A74)</f>
         <v>2</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A73, z!E$2:'z'!E$217,  "&gt;="&amp;$A74)</f>
         <v>12</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A73, z!F$2:'z'!F$217,  "&gt;="&amp;$A74)</f>
         <v>24</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A73, z!G$2:'z'!G$217,  "&gt;="&amp;$A74)</f>
         <v>18</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A73, z!H$2:'z'!H$217,  "&gt;="&amp;$A74)</f>
         <v>19</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A73, z!I$2:'z'!I$217,  "&gt;="&amp;$A74)</f>
         <v>41</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A73, z!J$2:'z'!J$217,  "&gt;="&amp;$A74)</f>
         <v>54</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A73, z!K$2:'z'!K$217,  "&gt;="&amp;$A74)</f>
         <v>40</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A73, z!L$2:'z'!L$217,  "&gt;="&amp;$A74)</f>
         <v>39</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A73, z!M$2:'z'!M$217,  "&gt;="&amp;$A74)</f>
         <v>45</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A73, z!N$2:'z'!N$217,  "&gt;="&amp;$A74)</f>
         <v>36</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A73, z!O$2:'z'!O$217,  "&gt;="&amp;$A74)</f>
         <v>40</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A73, z!P$2:'z'!P$217,  "&gt;="&amp;$A74)</f>
         <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>-0.39999999999999902</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A74, z!A$2:'z'!A$217,  "&gt;="&amp;$A75)</f>
         <v>7</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A74, z!B$2:'z'!B$217,  "&gt;="&amp;$A75)</f>
         <v>4</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A74, z!C$2:'z'!C$217,  "&gt;="&amp;$A75)</f>
         <v>2</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A74, z!D$2:'z'!D$217,  "&gt;="&amp;$A75)</f>
         <v>2</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A74, z!E$2:'z'!E$217,  "&gt;="&amp;$A75)</f>
         <v>16</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A74, z!F$2:'z'!F$217,  "&gt;="&amp;$A75)</f>
         <v>18</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A74, z!G$2:'z'!G$217,  "&gt;="&amp;$A75)</f>
         <v>9</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A74, z!H$2:'z'!H$217,  "&gt;="&amp;$A75)</f>
         <v>10</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A74, z!I$2:'z'!I$217,  "&gt;="&amp;$A75)</f>
         <v>27</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A74, z!J$2:'z'!J$217,  "&gt;="&amp;$A75)</f>
         <v>30</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A74, z!K$2:'z'!K$217,  "&gt;="&amp;$A75)</f>
         <v>23</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A74, z!L$2:'z'!L$217,  "&gt;="&amp;$A75)</f>
         <v>23</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A74, z!M$2:'z'!M$217,  "&gt;="&amp;$A75)</f>
         <v>24</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A74, z!N$2:'z'!N$217,  "&gt;="&amp;$A75)</f>
         <v>19</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A74, z!O$2:'z'!O$217,  "&gt;="&amp;$A75)</f>
         <v>33</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A74, z!P$2:'z'!P$217,  "&gt;="&amp;$A75)</f>
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>-0.5</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A75, z!A$2:'z'!A$217,  "&gt;="&amp;$A76)</f>
         <v>23</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A75, z!B$2:'z'!B$217,  "&gt;="&amp;$A76)</f>
         <v>23</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A75, z!C$2:'z'!C$217,  "&gt;="&amp;$A76)</f>
         <v>6</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A75, z!D$2:'z'!D$217,  "&gt;="&amp;$A76)</f>
         <v>5</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A75, z!E$2:'z'!E$217,  "&gt;="&amp;$A76)</f>
         <v>17</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A75, z!F$2:'z'!F$217,  "&gt;="&amp;$A76)</f>
         <v>14</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A75, z!G$2:'z'!G$217,  "&gt;="&amp;$A76)</f>
         <v>10</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A75, z!H$2:'z'!H$217,  "&gt;="&amp;$A76)</f>
         <v>6</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A75, z!I$2:'z'!I$217,  "&gt;="&amp;$A76)</f>
         <v>3</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A75, z!J$2:'z'!J$217,  "&gt;="&amp;$A76)</f>
         <v>7</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A75, z!K$2:'z'!K$217,  "&gt;="&amp;$A76)</f>
         <v>10</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A75, z!L$2:'z'!L$217,  "&gt;="&amp;$A76)</f>
         <v>9</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A75, z!M$2:'z'!M$217,  "&gt;="&amp;$A76)</f>
         <v>5</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A75, z!N$2:'z'!N$217,  "&gt;="&amp;$A76)</f>
         <v>11</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A75, z!O$2:'z'!O$217,  "&gt;="&amp;$A76)</f>
         <v>8</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A75, z!P$2:'z'!P$217,  "&gt;="&amp;$A76)</f>
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>-0.6</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A76, z!A$2:'z'!A$217,  "&gt;="&amp;$A77)</f>
         <v>46</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A76, z!B$2:'z'!B$217,  "&gt;="&amp;$A77)</f>
         <v>34</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A76, z!C$2:'z'!C$217,  "&gt;="&amp;$A77)</f>
         <v>21</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A76, z!D$2:'z'!D$217,  "&gt;="&amp;$A77)</f>
         <v>10</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A76, z!E$2:'z'!E$217,  "&gt;="&amp;$A77)</f>
         <v>24</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A76, z!F$2:'z'!F$217,  "&gt;="&amp;$A77)</f>
         <v>18</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A76, z!G$2:'z'!G$217,  "&gt;="&amp;$A77)</f>
         <v>6</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A76, z!H$2:'z'!H$217,  "&gt;="&amp;$A77)</f>
         <v>2</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A76, z!I$2:'z'!I$217,  "&gt;="&amp;$A77)</f>
         <v>2</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A76, z!J$2:'z'!J$217,  "&gt;="&amp;$A77)</f>
         <v>1</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A76, z!K$2:'z'!K$217,  "&gt;="&amp;$A77)</f>
         <v>2</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A76, z!L$2:'z'!L$217,  "&gt;="&amp;$A77)</f>
         <v>3</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A76, z!M$2:'z'!M$217,  "&gt;="&amp;$A77)</f>
         <v>7</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A76, z!N$2:'z'!N$217,  "&gt;="&amp;$A77)</f>
         <v>8</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A76, z!O$2:'z'!O$217,  "&gt;="&amp;$A77)</f>
         <v>7</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A76, z!P$2:'z'!P$217,  "&gt;="&amp;$A77)</f>
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>-0.7</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A77, z!A$2:'z'!A$217,  "&gt;="&amp;$A78)</f>
         <v>13</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A77, z!B$2:'z'!B$217,  "&gt;="&amp;$A78)</f>
         <v>26</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A77, z!C$2:'z'!C$217,  "&gt;="&amp;$A78)</f>
         <v>25</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A77, z!D$2:'z'!D$217,  "&gt;="&amp;$A78)</f>
         <v>29</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A77, z!E$2:'z'!E$217,  "&gt;="&amp;$A78)</f>
         <v>22</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A77, z!F$2:'z'!F$217,  "&gt;="&amp;$A78)</f>
         <v>12</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A77, z!G$2:'z'!G$217,  "&gt;="&amp;$A78)</f>
         <v>6</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A77, z!H$2:'z'!H$217,  "&gt;="&amp;$A78)</f>
         <v>3</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A77, z!I$2:'z'!I$217,  "&gt;="&amp;$A78)</f>
         <v>3</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A77, z!J$2:'z'!J$217,  "&gt;="&amp;$A78)</f>
         <v>0</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A77, z!K$2:'z'!K$217,  "&gt;="&amp;$A78)</f>
         <v>0</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A77, z!L$2:'z'!L$217,  "&gt;="&amp;$A78)</f>
         <v>1</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A77, z!M$2:'z'!M$217,  "&gt;="&amp;$A78)</f>
         <v>1</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A77, z!N$2:'z'!N$217,  "&gt;="&amp;$A78)</f>
         <v>1</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A77, z!O$2:'z'!O$217,  "&gt;="&amp;$A78)</f>
         <v>2</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A77, z!P$2:'z'!P$217,  "&gt;="&amp;$A78)</f>
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>-0.8</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A78, z!A$2:'z'!A$217,  "&gt;="&amp;$A79)</f>
         <v>18</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A78, z!B$2:'z'!B$217,  "&gt;="&amp;$A79)</f>
         <v>20</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A78, z!C$2:'z'!C$217,  "&gt;="&amp;$A79)</f>
         <v>35</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A78, z!D$2:'z'!D$217,  "&gt;="&amp;$A79)</f>
         <v>35</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A78, z!E$2:'z'!E$217,  "&gt;="&amp;$A79)</f>
         <v>35</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A78, z!F$2:'z'!F$217,  "&gt;="&amp;$A79)</f>
         <v>13</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A78, z!G$2:'z'!G$217,  "&gt;="&amp;$A79)</f>
         <v>4</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A78, z!H$2:'z'!H$217,  "&gt;="&amp;$A79)</f>
         <v>1</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A78, z!I$2:'z'!I$217,  "&gt;="&amp;$A79)</f>
         <v>1</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A78, z!J$2:'z'!J$217,  "&gt;="&amp;$A79)</f>
         <v>0</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A78, z!K$2:'z'!K$217,  "&gt;="&amp;$A79)</f>
         <v>1</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A78, z!L$2:'z'!L$217,  "&gt;="&amp;$A79)</f>
         <v>0</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A78, z!M$2:'z'!M$217,  "&gt;="&amp;$A79)</f>
         <v>1</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A78, z!N$2:'z'!N$217,  "&gt;="&amp;$A79)</f>
         <v>0</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A78, z!O$2:'z'!O$217,  "&gt;="&amp;$A79)</f>
         <v>5</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A78, z!P$2:'z'!P$217,  "&gt;="&amp;$A79)</f>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>-0.9</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A79, z!A$2:'z'!A$217,  "&gt;="&amp;$A80)</f>
         <v>105</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A79, z!B$2:'z'!B$217,  "&gt;="&amp;$A80)</f>
         <v>100</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A79, z!C$2:'z'!C$217,  "&gt;="&amp;$A80)</f>
         <v>68</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A79, z!D$2:'z'!D$217,  "&gt;="&amp;$A80)</f>
         <v>52</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A79, z!E$2:'z'!E$217,  "&gt;="&amp;$A80)</f>
         <v>26</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A79, z!F$2:'z'!F$217,  "&gt;="&amp;$A80)</f>
         <v>6</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A79, z!G$2:'z'!G$217,  "&gt;="&amp;$A80)</f>
         <v>5</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A79, z!H$2:'z'!H$217,  "&gt;="&amp;$A80)</f>
         <v>3</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A79, z!I$2:'z'!I$217,  "&gt;="&amp;$A80)</f>
         <v>1</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A79, z!J$2:'z'!J$217,  "&gt;="&amp;$A80)</f>
         <v>2</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A79, z!K$2:'z'!K$217,  "&gt;="&amp;$A80)</f>
         <v>0</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A79, z!L$2:'z'!L$217,  "&gt;="&amp;$A80)</f>
         <v>0</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A79, z!M$2:'z'!M$217,  "&gt;="&amp;$A80)</f>
         <v>0</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A79, z!N$2:'z'!N$217,  "&gt;="&amp;$A80)</f>
         <v>1</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A79, z!O$2:'z'!O$217,  "&gt;="&amp;$A80)</f>
         <v>1</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A79, z!P$2:'z'!P$217,  "&gt;="&amp;$A80)</f>
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>-1</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A80, z!A$2:'z'!A$217,  "&gt;="&amp;$A81)</f>
         <v>0</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A80, z!B$2:'z'!B$217,  "&gt;="&amp;$A81)</f>
         <v>5</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A80, z!C$2:'z'!C$217,  "&gt;="&amp;$A81)</f>
         <v>50</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A80, z!D$2:'z'!D$217,  "&gt;="&amp;$A81)</f>
         <v>55</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A80, z!E$2:'z'!E$217,  "&gt;="&amp;$A81)</f>
         <v>20</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A80, z!F$2:'z'!F$217,  "&gt;="&amp;$A81)</f>
         <v>8</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A80, z!G$2:'z'!G$217,  "&gt;="&amp;$A81)</f>
         <v>3</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A80, z!H$2:'z'!H$217,  "&gt;="&amp;$A81)</f>
         <v>1</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A80, z!I$2:'z'!I$217,  "&gt;="&amp;$A81)</f>
         <v>0</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A80, z!J$2:'z'!J$217,  "&gt;="&amp;$A81)</f>
         <v>0</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A80, z!K$2:'z'!K$217,  "&gt;="&amp;$A81)</f>
         <v>1</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A80, z!L$2:'z'!L$217,  "&gt;="&amp;$A81)</f>
         <v>1</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A80, z!M$2:'z'!M$217,  "&gt;="&amp;$A81)</f>
         <v>0</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A80, z!N$2:'z'!N$217,  "&gt;="&amp;$A81)</f>
         <v>0</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A80, z!O$2:'z'!O$217,  "&gt;="&amp;$A81)</f>
         <v>0</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A80, z!P$2:'z'!P$217,  "&gt;="&amp;$A81)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A81, z!A$2:'z'!A$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A81, z!B$2:'z'!B$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A81, z!C$2:'z'!C$217,  "&gt;="&amp;$A82)</f>
         <v>4</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A81, z!D$2:'z'!D$217,  "&gt;="&amp;$A82)</f>
         <v>14</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A81, z!E$2:'z'!E$217,  "&gt;="&amp;$A82)</f>
         <v>15</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A81, z!F$2:'z'!F$217,  "&gt;="&amp;$A82)</f>
         <v>3</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A81, z!G$2:'z'!G$217,  "&gt;="&amp;$A82)</f>
         <v>1</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A81, z!H$2:'z'!H$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A81, z!I$2:'z'!I$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A81, z!J$2:'z'!J$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A81, z!K$2:'z'!K$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A81, z!L$2:'z'!L$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A81, z!M$2:'z'!M$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A81, z!N$2:'z'!N$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A81, z!O$2:'z'!O$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A81, z!P$2:'z'!P$217,  "&gt;="&amp;$A82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>-1.2</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <f>COUNTIFS(z!A$2:'z'!A$217, "&lt;"&amp;$A82, z!A$2:'z'!A$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <f>COUNTIFS(z!B$2:'z'!B$217, "&lt;"&amp;$A82, z!B$2:'z'!B$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <f>COUNTIFS(z!C$2:'z'!C$217, "&lt;"&amp;$A82, z!C$2:'z'!C$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <f>COUNTIFS(z!D$2:'z'!D$217, "&lt;"&amp;$A82, z!D$2:'z'!D$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <f>COUNTIFS(z!E$2:'z'!E$217, "&lt;"&amp;$A82, z!E$2:'z'!E$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <f>COUNTIFS(z!F$2:'z'!F$217, "&lt;"&amp;$A82, z!F$2:'z'!F$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <f>COUNTIFS(z!G$2:'z'!G$217, "&lt;"&amp;$A82, z!G$2:'z'!G$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <f>COUNTIFS(z!H$2:'z'!H$217, "&lt;"&amp;$A82, z!H$2:'z'!H$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="2">
         <f>COUNTIFS(z!I$2:'z'!I$217, "&lt;"&amp;$A82, z!I$2:'z'!I$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="2">
         <f>COUNTIFS(z!J$2:'z'!J$217, "&lt;"&amp;$A82, z!J$2:'z'!J$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="2">
         <f>COUNTIFS(z!K$2:'z'!K$217, "&lt;"&amp;$A82, z!K$2:'z'!K$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="2">
         <f>COUNTIFS(z!L$2:'z'!L$217, "&lt;"&amp;$A82, z!L$2:'z'!L$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="2">
         <f>COUNTIFS(z!M$2:'z'!M$217, "&lt;"&amp;$A82, z!M$2:'z'!M$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="2">
         <f>COUNTIFS(z!N$2:'z'!N$217, "&lt;"&amp;$A82, z!N$2:'z'!N$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="2">
         <f>COUNTIFS(z!O$2:'z'!O$217, "&lt;"&amp;$A82, z!O$2:'z'!O$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" s="2">
         <f>COUNTIFS(z!P$2:'z'!P$217, "&lt;"&amp;$A82, z!P$2:'z'!P$217,  "&gt;="&amp;$A83)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N83" t="s">
+      <c r="N83" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O83" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="Q83" s="2" t="s">
         <v>33</v>
       </c>
     </row>
